--- a/experiment/experiment_result.xlsx
+++ b/experiment/experiment_result.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="25">
   <si>
     <t>name</t>
   </si>
@@ -91,6 +91,15 @@
   <si>
     <t>3239ms</t>
   </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
 </sst>
 </file>
 
@@ -132,8 +141,36 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -442,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:P185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q40" sqref="Q40"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="N50" sqref="N50:N68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -453,7 +490,7 @@
     <col min="1" max="1" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -479,28 +516,31 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -525,29 +565,32 @@
       <c r="H2">
         <v>100</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2">
         <v>9.2695E-2</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.13996</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>0.40609099999999998</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>5.9035529999999996</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.66220100000000004</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>2.77</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>0.61</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -572,29 +615,32 @@
       <c r="H3">
         <v>150</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3">
         <v>9.2914999999999998E-2</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.13036900000000001</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.41116799999999998</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>5.5025380000000004</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.66402000000000005</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>2.96</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.66</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -619,29 +665,32 @@
       <c r="H4">
         <v>200</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4">
         <v>9.4240000000000004E-2</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.14032800000000001</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0.41116799999999998</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>5.9035529999999996</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0.65057799999999999</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>3.12</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>0.66</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -666,29 +715,32 @@
       <c r="H5">
         <v>100</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5">
         <v>9.2914999999999998E-2</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.13494500000000001</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>0.39593899999999999</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>5.7664970000000002</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0.67567900000000003</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>2.78</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>1.2</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -713,29 +765,32 @@
       <c r="H6">
         <v>150</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6">
         <v>8.8500999999999996E-2</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.13829900000000001</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>0.39086300000000002</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>5.8832490000000002</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0.67165200000000003</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>2.89</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>1.19</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -760,29 +815,32 @@
       <c r="H7">
         <v>200</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7">
         <v>9.0707999999999997E-2</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0.13358999999999999</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>0.39086300000000002</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>5.7360410000000002</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0.67329099999999997</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>3.17</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -807,29 +865,32 @@
       <c r="H8">
         <v>100</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8">
         <v>9.2914999999999998E-2</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>0.13164200000000001</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>0.40101500000000001</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>5.6751269999999998</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>0.67339300000000002</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>2.91</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>1.67</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -854,29 +915,32 @@
       <c r="H9">
         <v>150</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9">
         <v>8.8721999999999995E-2</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>0.126558</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>0.39593899999999999</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>5.4619289999999996</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>0.67947000000000002</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>2.84</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>1.62</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -901,29 +965,32 @@
       <c r="H10">
         <v>200</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10">
         <v>8.7177000000000004E-2</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>0.13073799999999999</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>0.38578699999999999</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>5.6345179999999999</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>0.68211200000000005</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>3.1</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>1.74</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -948,29 +1015,32 @@
       <c r="H11">
         <v>100</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11">
         <v>9.4240000000000004E-2</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>0.13373599999999999</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>0.39086300000000002</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>5.7005080000000001</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>0.66955100000000001</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>2.74</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>2.21</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -995,29 +1065,32 @@
       <c r="H12">
         <v>150</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12">
         <v>9.3356999999999996E-2</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>0.13605500000000001</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>0.40101500000000001</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>5.817259</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>0.66770399999999996</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>3.26</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1042,29 +1115,32 @@
       <c r="H13">
         <v>200</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13">
         <v>8.9163999999999993E-2</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>0.13311300000000001</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>0.39593899999999999</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>5.7258880000000003</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>0.676647</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>3.29</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1089,29 +1165,32 @@
       <c r="H14">
         <v>100</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14">
         <v>6.4004000000000005E-2</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>7.2921E-2</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>0.19797000000000001</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>3.888325</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>0.80523599999999995</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>2.7</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>0.63</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1136,29 +1215,32 @@
       <c r="H15">
         <v>150</v>
       </c>
-      <c r="I15">
+      <c r="I15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15">
         <v>6.5327999999999997E-2</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>7.7118000000000006E-2</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>0.208122</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>4.0152279999999996</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>0.80100199999999999</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>2.95</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>0.67</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1183,29 +1265,32 @@
       <c r="H16">
         <v>200</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16">
         <v>5.9368999999999998E-2</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>7.1809999999999999E-2</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>0.18781700000000001</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>3.86802</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>0.80819200000000002</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>3.25</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>0.72</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1230,29 +1315,32 @@
       <c r="H17">
         <v>100</v>
       </c>
-      <c r="I17">
+      <c r="I17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17">
         <v>6.5106999999999998E-2</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>7.5994000000000006E-2</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>0.213198</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>4.0659900000000002</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>0.80484800000000001</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>2.9</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1277,29 +1365,32 @@
       <c r="H18">
         <v>150</v>
       </c>
-      <c r="I18">
+      <c r="I18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18">
         <v>6.1796999999999998E-2</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>7.5181999999999999E-2</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>0.19797000000000001</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>3.9898479999999998</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>0.80477100000000001</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>3.77</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>1.46</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1324,29 +1415,32 @@
       <c r="H19">
         <v>200</v>
       </c>
-      <c r="I19">
+      <c r="I19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19">
         <v>7.0182999999999995E-2</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>7.5302999999999995E-2</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>0.19797000000000001</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>3.9289339999999999</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>0.80173700000000003</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>3.16</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>2.34</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1371,29 +1465,32 @@
       <c r="H20">
         <v>100</v>
       </c>
-      <c r="I20">
+      <c r="I20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20">
         <v>6.0031000000000001E-2</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>7.4652999999999997E-2</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>0.19797000000000001</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>4.0558379999999996</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0.80637199999999998</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>2.84</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>1.65</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1418,29 +1515,32 @@
       <c r="H21">
         <v>150</v>
       </c>
-      <c r="I21">
+      <c r="I21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21">
         <v>6.4666000000000001E-2</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>8.2721000000000003E-2</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.19289300000000001</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>4.2385789999999997</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.79991699999999999</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>2.91</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>1.66</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1465,29 +1565,32 @@
       <c r="H22">
         <v>200</v>
       </c>
-      <c r="I22">
+      <c r="I22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22">
         <v>6.5327999999999997E-2</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>7.5775999999999996E-2</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>0.213198</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>3.8934009999999999</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>0.80372600000000005</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>3.1</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>1.66</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -1512,29 +1615,32 @@
       <c r="H23">
         <v>100</v>
       </c>
-      <c r="I23">
+      <c r="I23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23">
         <v>5.4954999999999997E-2</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>7.1367E-2</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>0.17258899999999999</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>3.9289339999999999</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>0.82038800000000001</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>2.9</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>2.1</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -1559,29 +1665,32 @@
       <c r="H24">
         <v>150</v>
       </c>
-      <c r="I24">
+      <c r="I24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24">
         <v>6.7093E-2</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>8.3890000000000006E-2</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>0.218274</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>4.1573599999999997</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>0.79680300000000004</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>2.94</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>2.17</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -1606,29 +1715,32 @@
       <c r="H25">
         <v>200</v>
       </c>
-      <c r="I25">
+      <c r="I25" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25">
         <v>6.3783000000000006E-2</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>7.2262000000000007E-2</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>0.218274</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>3.7614209999999999</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>0.80056499999999997</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>3.08</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -1653,29 +1765,32 @@
       <c r="H26">
         <v>100</v>
       </c>
-      <c r="I26">
+      <c r="I26" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26">
         <v>0.73760000000000003</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>0.20300000000000001</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>0.38</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>0.89</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>0.75780000000000003</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>34.35</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>4.71</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -1700,29 +1815,32 @@
       <c r="H27">
         <v>150</v>
       </c>
-      <c r="I27">
+      <c r="I27" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27">
         <v>0.73560000000000003</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>0.22</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>0.40799999999999997</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>0.96</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>0.73573299999999997</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>34.46</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>4.62</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -1747,29 +1865,32 @@
       <c r="H28">
         <v>200</v>
       </c>
-      <c r="I28">
+      <c r="I28" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28">
         <v>0.74</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>0.220333</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>0.42</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>0.96</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>0.73283299999999996</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>34.64</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>4.7</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -1794,29 +1915,32 @@
       <c r="H29">
         <v>100</v>
       </c>
-      <c r="I29">
+      <c r="I29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29">
         <v>0.72799999999999998</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>0.20983299999999999</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>0.38800000000000001</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>0.91800000000000004</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>0.74956699999999998</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>34.33</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>9.24</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -1841,29 +1965,32 @@
       <c r="H30">
         <v>150</v>
       </c>
-      <c r="I30">
+      <c r="I30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30">
         <v>0.73360000000000003</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>0.219</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>0.39800000000000002</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>0.95199999999999996</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>0.7419</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>34.700000000000003</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>9.3699999999999992</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -1888,29 +2015,32 @@
       <c r="H31">
         <v>200</v>
       </c>
-      <c r="I31">
+      <c r="I31" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31">
         <v>0.72360000000000002</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>0.20833299999999999</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>0.39400000000000002</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>0.91</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>0.74843300000000001</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>36.549999999999997</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -1935,29 +2065,32 @@
       <c r="H32">
         <v>100</v>
       </c>
-      <c r="I32">
+      <c r="I32" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32">
         <v>0.73440000000000005</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>0.21149999999999999</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>0.41</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>0.92400000000000004</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>0.7409</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>33.96</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>13.92</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -1982,29 +2115,32 @@
       <c r="H33">
         <v>150</v>
       </c>
-      <c r="I33">
+      <c r="I33" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33">
         <v>0.74080000000000001</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>0.217</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>0.40400000000000003</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>0.94399999999999995</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>0.74039999999999995</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>34.75</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>13.83</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:16">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -2029,29 +2165,32 @@
       <c r="H34">
         <v>200</v>
       </c>
-      <c r="I34">
+      <c r="I34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34">
         <v>0.73599999999999999</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>0.20399999999999999</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>0.37</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>0.89200000000000002</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>0.75988299999999998</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>34.590000000000003</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>13.86</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -2076,29 +2215,32 @@
       <c r="H35">
         <v>100</v>
       </c>
-      <c r="I35">
+      <c r="I35" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35">
         <v>0.74080000000000001</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>0.20283300000000001</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>0.38</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>0.88800000000000001</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>0.75753300000000001</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>34.06</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>18.850000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -2123,29 +2265,32 @@
       <c r="H36">
         <v>150</v>
       </c>
-      <c r="I36">
+      <c r="I36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36">
         <v>0.73839999999999995</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>0.21283299999999999</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>0.39400000000000002</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>0.93</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>0.74660000000000004</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>34.97</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>18.64</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -2170,29 +2315,32 @@
       <c r="H37">
         <v>200</v>
       </c>
-      <c r="I37">
+      <c r="I37" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37">
         <v>0.72799999999999998</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>0.20916699999999999</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>0.37</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>0.91</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>0.75818300000000005</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>34.409999999999997</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>18.829999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -2217,29 +2365,32 @@
       <c r="H38">
         <v>100</v>
       </c>
-      <c r="I38">
+      <c r="I38" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38">
         <v>0.752</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>0.17599999999999999</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>0.34399999999999997</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>0.82399999999999995</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>0.79026700000000005</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>34.74</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>4.7300000000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -2264,29 +2415,32 @@
       <c r="H39">
         <v>150</v>
       </c>
-      <c r="I39">
+      <c r="I39" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39">
         <v>0.75880000000000003</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>0.16733300000000001</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>0.34200000000000003</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>0.79</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>0.79603299999999999</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>34.82</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>4.7300000000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:16">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -2311,29 +2465,32 @@
       <c r="H40">
         <v>200</v>
       </c>
-      <c r="I40">
+      <c r="I40" t="s">
+        <v>24</v>
+      </c>
+      <c r="J40">
         <v>0.75119999999999998</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>0.160667</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>0.312</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>0.76200000000000001</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>0.81020000000000003</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>34.92</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>4.7300000000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -2358,29 +2515,32 @@
       <c r="H41">
         <v>100</v>
       </c>
-      <c r="I41">
+      <c r="I41" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41">
         <v>0.75119999999999998</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>0.17283299999999999</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>0.33</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>0.81</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>0.79836700000000005</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>34.549999999999997</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>9.41</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -2405,29 +2565,32 @@
       <c r="H42">
         <v>150</v>
       </c>
-      <c r="I42">
+      <c r="I42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42">
         <v>0.74919999999999998</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>0.16500000000000001</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>0.30399999999999999</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>0.78</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>0.81186700000000001</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>35.83</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>9.4600000000000009</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:16">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -2452,29 +2615,32 @@
       <c r="H43">
         <v>200</v>
       </c>
-      <c r="I43">
+      <c r="I43" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43">
         <v>0.75080000000000002</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>0.16650000000000001</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>0.316</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>0.78600000000000003</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>0.80536700000000006</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>35.520000000000003</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>9.6199999999999992</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -2499,29 +2665,32 @@
       <c r="H44">
         <v>100</v>
       </c>
-      <c r="I44">
+      <c r="I44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J44">
         <v>0.75160000000000005</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>0.16833300000000001</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>0.33400000000000002</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>0.79200000000000004</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>0.79833299999999996</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>34.869999999999997</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>14.44</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
         <v>19</v>
       </c>
@@ -2546,29 +2715,32 @@
       <c r="H45">
         <v>150</v>
       </c>
-      <c r="I45">
+      <c r="I45" t="s">
+        <v>24</v>
+      </c>
+      <c r="J45">
         <v>0.75</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>0.16983300000000001</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>0.33200000000000002</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>0.79800000000000004</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>0.79754999999999998</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>35.47</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>14.45</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:16">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -2593,29 +2765,32 @@
       <c r="H46">
         <v>200</v>
       </c>
-      <c r="I46">
+      <c r="I46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46">
         <v>0.75119999999999998</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>0.17366699999999999</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>0.33400000000000002</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>0.81200000000000006</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>0.79584999999999995</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>35.57</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>14.5</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:16">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -2640,29 +2815,32 @@
       <c r="H47">
         <v>100</v>
       </c>
-      <c r="I47">
+      <c r="I47" t="s">
+        <v>24</v>
+      </c>
+      <c r="J47">
         <v>0.75160000000000005</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>0.17383299999999999</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>0.33600000000000002</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>0.81399999999999995</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>0.79530000000000001</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>35.61</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>19.05</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:16">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -2687,29 +2865,32 @@
       <c r="H48">
         <v>150</v>
       </c>
-      <c r="I48">
+      <c r="I48" t="s">
+        <v>24</v>
+      </c>
+      <c r="J48">
         <v>0.75</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>0.16633300000000001</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>0.314</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>0.78400000000000003</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>0.806917</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>35.630000000000003</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>19.2</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:16">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -2734,26 +2915,6829 @@
       <c r="H49">
         <v>200</v>
       </c>
-      <c r="I49">
+      <c r="I49" t="s">
+        <v>24</v>
+      </c>
+      <c r="J49">
         <v>0.74919999999999998</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>0.16933300000000001</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>0.33400000000000002</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>0.79600000000000004</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>0.79759999999999998</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <v>35.479999999999997</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>19.34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50">
+        <v>100</v>
+      </c>
+      <c r="C50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50">
+        <v>400</v>
+      </c>
+      <c r="E50">
+        <v>29</v>
+      </c>
+      <c r="F50" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50">
+        <v>0.2</v>
+      </c>
+      <c r="H50" t="s">
+        <v>24</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>9.7991999999999996E-2</v>
+      </c>
+      <c r="K50">
+        <v>0.28503699999999998</v>
+      </c>
+      <c r="L50">
+        <v>0.49746200000000002</v>
+      </c>
+      <c r="M50">
+        <v>10.401014999999999</v>
+      </c>
+      <c r="N50">
+        <v>0.53884600000000005</v>
+      </c>
+      <c r="O50">
+        <v>2.67</v>
+      </c>
+      <c r="P50">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51">
+        <v>100</v>
+      </c>
+      <c r="C51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51">
+        <v>400</v>
+      </c>
+      <c r="E51">
+        <v>29</v>
+      </c>
+      <c r="F51" t="s">
+        <v>23</v>
+      </c>
+      <c r="G51">
+        <v>0.2</v>
+      </c>
+      <c r="H51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I51">
+        <v>3</v>
+      </c>
+      <c r="J51">
+        <v>0.106158</v>
+      </c>
+      <c r="K51">
+        <v>0.26813700000000001</v>
+      </c>
+      <c r="L51">
+        <v>0.62944199999999995</v>
+      </c>
+      <c r="M51">
+        <v>9.2182739999999992</v>
+      </c>
+      <c r="N51">
+        <v>0.50693500000000002</v>
+      </c>
+      <c r="O51">
+        <v>2.65</v>
+      </c>
+      <c r="P51">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52">
+        <v>100</v>
+      </c>
+      <c r="C52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52">
+        <v>400</v>
+      </c>
+      <c r="E52">
+        <v>29</v>
+      </c>
+      <c r="F52" t="s">
+        <v>23</v>
+      </c>
+      <c r="G52">
+        <v>0.2</v>
+      </c>
+      <c r="H52" t="s">
+        <v>24</v>
+      </c>
+      <c r="I52">
+        <v>5</v>
+      </c>
+      <c r="J52">
+        <v>0.10792300000000001</v>
+      </c>
+      <c r="K52">
+        <v>0.37959199999999998</v>
+      </c>
+      <c r="L52">
+        <v>0.59898499999999999</v>
+      </c>
+      <c r="M52">
+        <v>11.192893</v>
+      </c>
+      <c r="N52">
+        <v>0.46243800000000002</v>
+      </c>
+      <c r="O52">
+        <v>2.7</v>
+      </c>
+      <c r="P52">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53">
+        <v>100</v>
+      </c>
+      <c r="C53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53">
+        <v>400</v>
+      </c>
+      <c r="E53">
+        <v>29</v>
+      </c>
+      <c r="F53" t="s">
+        <v>23</v>
+      </c>
+      <c r="G53">
+        <v>0.2</v>
+      </c>
+      <c r="H53" t="s">
+        <v>24</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>0.108806</v>
+      </c>
+      <c r="K53">
+        <v>0.31478899999999999</v>
+      </c>
+      <c r="L53">
+        <v>0.639594</v>
+      </c>
+      <c r="M53">
+        <v>10.416244000000001</v>
+      </c>
+      <c r="N53">
+        <v>0.48426200000000003</v>
+      </c>
+      <c r="O53">
+        <v>2.72</v>
+      </c>
+      <c r="P53">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54">
+        <v>100</v>
+      </c>
+      <c r="C54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54">
+        <v>400</v>
+      </c>
+      <c r="E54">
+        <v>29</v>
+      </c>
+      <c r="F54" t="s">
+        <v>23</v>
+      </c>
+      <c r="G54">
+        <v>0.2</v>
+      </c>
+      <c r="H54" t="s">
+        <v>24</v>
+      </c>
+      <c r="I54">
+        <v>3</v>
+      </c>
+      <c r="J54">
+        <v>0.108585</v>
+      </c>
+      <c r="K54">
+        <v>0.319328</v>
+      </c>
+      <c r="L54">
+        <v>0.61928899999999998</v>
+      </c>
+      <c r="M54">
+        <v>10.253807</v>
+      </c>
+      <c r="N54">
+        <v>0.47142600000000001</v>
+      </c>
+      <c r="O54">
+        <v>2.68</v>
+      </c>
+      <c r="P54">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55">
+        <v>100</v>
+      </c>
+      <c r="C55" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55">
+        <v>400</v>
+      </c>
+      <c r="E55">
+        <v>29</v>
+      </c>
+      <c r="F55" t="s">
+        <v>23</v>
+      </c>
+      <c r="G55">
+        <v>0.2</v>
+      </c>
+      <c r="H55" t="s">
+        <v>24</v>
+      </c>
+      <c r="I55">
+        <v>5</v>
+      </c>
+      <c r="J55">
+        <v>0.102185</v>
+      </c>
+      <c r="K55">
+        <v>0.31067600000000001</v>
+      </c>
+      <c r="L55">
+        <v>0.58375600000000005</v>
+      </c>
+      <c r="M55">
+        <v>11.13198</v>
+      </c>
+      <c r="N55">
+        <v>0.53261599999999998</v>
+      </c>
+      <c r="O55">
+        <v>3.19</v>
+      </c>
+      <c r="P55">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56">
+        <v>100</v>
+      </c>
+      <c r="C56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56">
+        <v>400</v>
+      </c>
+      <c r="E56">
+        <v>29</v>
+      </c>
+      <c r="F56" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56">
+        <v>0.2</v>
+      </c>
+      <c r="H56" t="s">
+        <v>24</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>0.104171</v>
+      </c>
+      <c r="K56">
+        <v>0.29571799999999998</v>
+      </c>
+      <c r="L56">
+        <v>0.58375600000000005</v>
+      </c>
+      <c r="M56">
+        <v>9.7969539999999995</v>
+      </c>
+      <c r="N56">
+        <v>0.50855700000000004</v>
+      </c>
+      <c r="O56">
+        <v>2.84</v>
+      </c>
+      <c r="P56">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57">
+        <v>100</v>
+      </c>
+      <c r="C57" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57">
+        <v>400</v>
+      </c>
+      <c r="E57">
+        <v>29</v>
+      </c>
+      <c r="F57" t="s">
+        <v>23</v>
+      </c>
+      <c r="G57">
+        <v>0.2</v>
+      </c>
+      <c r="H57" t="s">
+        <v>24</v>
+      </c>
+      <c r="I57">
+        <v>3</v>
+      </c>
+      <c r="J57">
+        <v>0.10990999999999999</v>
+      </c>
+      <c r="K57">
+        <v>0.30448900000000001</v>
+      </c>
+      <c r="L57">
+        <v>0.61928899999999998</v>
+      </c>
+      <c r="M57">
+        <v>10.289339999999999</v>
+      </c>
+      <c r="N57">
+        <v>0.48649100000000001</v>
+      </c>
+      <c r="O57">
+        <v>2.62</v>
+      </c>
+      <c r="P57">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58">
+        <v>100</v>
+      </c>
+      <c r="C58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58">
+        <v>400</v>
+      </c>
+      <c r="E58">
+        <v>29</v>
+      </c>
+      <c r="F58" t="s">
+        <v>23</v>
+      </c>
+      <c r="G58">
+        <v>0.2</v>
+      </c>
+      <c r="H58" t="s">
+        <v>24</v>
+      </c>
+      <c r="I58">
+        <v>5</v>
+      </c>
+      <c r="J58">
+        <v>9.6667000000000003E-2</v>
+      </c>
+      <c r="K58">
+        <v>0.24753</v>
+      </c>
+      <c r="L58">
+        <v>0.44162400000000002</v>
+      </c>
+      <c r="M58">
+        <v>8.2487309999999994</v>
+      </c>
+      <c r="N58">
+        <v>0.58394800000000002</v>
+      </c>
+      <c r="O58">
+        <v>2.77</v>
+      </c>
+      <c r="P58">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59">
+        <v>100</v>
+      </c>
+      <c r="C59" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59">
+        <v>400</v>
+      </c>
+      <c r="E59">
+        <v>29</v>
+      </c>
+      <c r="F59" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59">
+        <v>0.4</v>
+      </c>
+      <c r="H59" t="s">
+        <v>24</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>8.4970000000000004E-2</v>
+      </c>
+      <c r="K59">
+        <v>0.251892</v>
+      </c>
+      <c r="L59">
+        <v>0.39086300000000002</v>
+      </c>
+      <c r="M59">
+        <v>9.6040609999999997</v>
+      </c>
+      <c r="N59">
+        <v>0.59967499999999996</v>
+      </c>
+      <c r="O59">
+        <v>2.91</v>
+      </c>
+      <c r="P59">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60">
+        <v>100</v>
+      </c>
+      <c r="C60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60">
+        <v>400</v>
+      </c>
+      <c r="E60">
+        <v>29</v>
+      </c>
+      <c r="F60" t="s">
+        <v>23</v>
+      </c>
+      <c r="G60">
+        <v>0.4</v>
+      </c>
+      <c r="H60" t="s">
+        <v>24</v>
+      </c>
+      <c r="I60">
+        <v>3</v>
+      </c>
+      <c r="J60">
+        <v>8.1659999999999996E-2</v>
+      </c>
+      <c r="K60">
+        <v>0.291769</v>
+      </c>
+      <c r="L60">
+        <v>0.33502500000000002</v>
+      </c>
+      <c r="M60">
+        <v>10.015228</v>
+      </c>
+      <c r="N60">
+        <v>0.58023800000000003</v>
+      </c>
+      <c r="O60">
+        <v>2.74</v>
+      </c>
+      <c r="P60">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61">
+        <v>100</v>
+      </c>
+      <c r="C61" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61">
+        <v>400</v>
+      </c>
+      <c r="E61">
+        <v>29</v>
+      </c>
+      <c r="F61" t="s">
+        <v>23</v>
+      </c>
+      <c r="G61">
+        <v>0.4</v>
+      </c>
+      <c r="H61" t="s">
+        <v>24</v>
+      </c>
+      <c r="I61">
+        <v>5</v>
+      </c>
+      <c r="J61">
+        <v>9.9756999999999998E-2</v>
+      </c>
+      <c r="K61">
+        <v>0.33894600000000003</v>
+      </c>
+      <c r="L61">
+        <v>0.54314700000000005</v>
+      </c>
+      <c r="M61">
+        <v>9.9086289999999995</v>
+      </c>
+      <c r="N61">
+        <v>0.52055300000000004</v>
+      </c>
+      <c r="O61">
+        <v>2.73</v>
+      </c>
+      <c r="P61">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62">
+        <v>100</v>
+      </c>
+      <c r="C62" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62">
+        <v>400</v>
+      </c>
+      <c r="E62">
+        <v>29</v>
+      </c>
+      <c r="F62" t="s">
+        <v>23</v>
+      </c>
+      <c r="G62">
+        <v>0.4</v>
+      </c>
+      <c r="H62" t="s">
+        <v>24</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>0.10041899999999999</v>
+      </c>
+      <c r="K62">
+        <v>0.23182800000000001</v>
+      </c>
+      <c r="L62">
+        <v>0.55329899999999999</v>
+      </c>
+      <c r="M62">
+        <v>8.9898480000000003</v>
+      </c>
+      <c r="N62">
+        <v>0.57979000000000003</v>
+      </c>
+      <c r="O62">
+        <v>2.75</v>
+      </c>
+      <c r="P62">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63">
+        <v>100</v>
+      </c>
+      <c r="C63" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63">
+        <v>400</v>
+      </c>
+      <c r="E63">
+        <v>29</v>
+      </c>
+      <c r="F63" t="s">
+        <v>23</v>
+      </c>
+      <c r="G63">
+        <v>0.4</v>
+      </c>
+      <c r="H63" t="s">
+        <v>24</v>
+      </c>
+      <c r="I63">
+        <v>3</v>
+      </c>
+      <c r="J63">
+        <v>9.1591000000000006E-2</v>
+      </c>
+      <c r="K63">
+        <v>0.28816000000000003</v>
+      </c>
+      <c r="L63">
+        <v>0.42131999999999997</v>
+      </c>
+      <c r="M63">
+        <v>9.7309640000000002</v>
+      </c>
+      <c r="N63">
+        <v>0.59034900000000001</v>
+      </c>
+      <c r="O63">
+        <v>6.47</v>
+      </c>
+      <c r="P63">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64">
+        <v>100</v>
+      </c>
+      <c r="C64" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64">
+        <v>400</v>
+      </c>
+      <c r="E64">
+        <v>29</v>
+      </c>
+      <c r="F64" t="s">
+        <v>23</v>
+      </c>
+      <c r="G64">
+        <v>0.4</v>
+      </c>
+      <c r="H64" t="s">
+        <v>24</v>
+      </c>
+      <c r="I64">
+        <v>5</v>
+      </c>
+      <c r="J64">
+        <v>9.8211999999999994E-2</v>
+      </c>
+      <c r="K64">
+        <v>0.29735499999999998</v>
+      </c>
+      <c r="L64">
+        <v>0.55329899999999999</v>
+      </c>
+      <c r="M64">
+        <v>9.9289339999999999</v>
+      </c>
+      <c r="N64">
+        <v>0.53987700000000005</v>
+      </c>
+      <c r="O64">
+        <v>2.87</v>
+      </c>
+      <c r="P64">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65">
+        <v>100</v>
+      </c>
+      <c r="C65" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65">
+        <v>400</v>
+      </c>
+      <c r="E65">
+        <v>29</v>
+      </c>
+      <c r="F65" t="s">
+        <v>23</v>
+      </c>
+      <c r="G65">
+        <v>0.4</v>
+      </c>
+      <c r="H65" t="s">
+        <v>24</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>0.101081</v>
+      </c>
+      <c r="K65">
+        <v>0.29420400000000002</v>
+      </c>
+      <c r="L65">
+        <v>0.52791900000000003</v>
+      </c>
+      <c r="M65">
+        <v>9.7157359999999997</v>
+      </c>
+      <c r="N65">
+        <v>0.53761199999999998</v>
+      </c>
+      <c r="O65">
+        <v>2.74</v>
+      </c>
+      <c r="P65">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66">
+        <v>100</v>
+      </c>
+      <c r="C66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66">
+        <v>400</v>
+      </c>
+      <c r="E66">
+        <v>29</v>
+      </c>
+      <c r="F66" t="s">
+        <v>23</v>
+      </c>
+      <c r="G66">
+        <v>0.4</v>
+      </c>
+      <c r="H66" t="s">
+        <v>24</v>
+      </c>
+      <c r="I66">
+        <v>3</v>
+      </c>
+      <c r="J66">
+        <v>0.102185</v>
+      </c>
+      <c r="K66">
+        <v>0.29030099999999998</v>
+      </c>
+      <c r="L66">
+        <v>0.57867999999999997</v>
+      </c>
+      <c r="M66">
+        <v>9.7309640000000002</v>
+      </c>
+      <c r="N66">
+        <v>0.53928799999999999</v>
+      </c>
+      <c r="O66">
+        <v>2.74</v>
+      </c>
+      <c r="P66">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67">
+        <v>100</v>
+      </c>
+      <c r="C67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67">
+        <v>400</v>
+      </c>
+      <c r="E67">
+        <v>29</v>
+      </c>
+      <c r="F67" t="s">
+        <v>23</v>
+      </c>
+      <c r="G67">
+        <v>0.4</v>
+      </c>
+      <c r="H67" t="s">
+        <v>24</v>
+      </c>
+      <c r="I67">
+        <v>5</v>
+      </c>
+      <c r="J67">
+        <v>8.8942999999999994E-2</v>
+      </c>
+      <c r="K67">
+        <v>0.28942499999999999</v>
+      </c>
+      <c r="L67">
+        <v>0.426396</v>
+      </c>
+      <c r="M67">
+        <v>9.2436550000000004</v>
+      </c>
+      <c r="N67">
+        <v>0.55769599999999997</v>
+      </c>
+      <c r="O67">
+        <v>2.75</v>
+      </c>
+      <c r="P67">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68">
+        <v>100</v>
+      </c>
+      <c r="C68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68">
+        <v>400</v>
+      </c>
+      <c r="E68">
+        <v>29</v>
+      </c>
+      <c r="F68" t="s">
+        <v>23</v>
+      </c>
+      <c r="G68">
+        <v>0.6</v>
+      </c>
+      <c r="H68" t="s">
+        <v>24</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>9.6888000000000002E-2</v>
+      </c>
+      <c r="K68">
+        <v>0.27514</v>
+      </c>
+      <c r="L68">
+        <v>0.51776599999999995</v>
+      </c>
+      <c r="M68">
+        <v>9.9695429999999998</v>
+      </c>
+      <c r="N68">
+        <v>0.58076399999999995</v>
+      </c>
+      <c r="O68">
+        <v>2.85</v>
+      </c>
+      <c r="P68">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69">
+        <v>100</v>
+      </c>
+      <c r="C69" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69">
+        <v>400</v>
+      </c>
+      <c r="E69">
+        <v>29</v>
+      </c>
+      <c r="F69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G69">
+        <v>0.6</v>
+      </c>
+      <c r="H69" t="s">
+        <v>24</v>
+      </c>
+      <c r="I69">
+        <v>3</v>
+      </c>
+      <c r="J69">
+        <v>9.5563999999999996E-2</v>
+      </c>
+      <c r="K69">
+        <v>0.31171900000000002</v>
+      </c>
+      <c r="L69">
+        <v>0.51776599999999995</v>
+      </c>
+      <c r="M69">
+        <v>10.411168</v>
+      </c>
+      <c r="N69">
+        <v>0.54281199999999996</v>
+      </c>
+      <c r="O69">
+        <v>3.04</v>
+      </c>
+      <c r="P69">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70">
+        <v>100</v>
+      </c>
+      <c r="C70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70">
+        <v>400</v>
+      </c>
+      <c r="E70">
+        <v>29</v>
+      </c>
+      <c r="F70" t="s">
+        <v>23</v>
+      </c>
+      <c r="G70">
+        <v>0.6</v>
+      </c>
+      <c r="H70" t="s">
+        <v>24</v>
+      </c>
+      <c r="I70">
+        <v>5</v>
+      </c>
+      <c r="J70">
+        <v>8.3866999999999997E-2</v>
+      </c>
+      <c r="K70">
+        <v>0.30552299999999999</v>
+      </c>
+      <c r="L70">
+        <v>0.38071100000000002</v>
+      </c>
+      <c r="M70">
+        <v>10.411168</v>
+      </c>
+      <c r="N70">
+        <v>0.58737099999999998</v>
+      </c>
+      <c r="O70">
+        <v>2.91</v>
+      </c>
+      <c r="P70">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71">
+        <v>100</v>
+      </c>
+      <c r="C71" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71">
+        <v>400</v>
+      </c>
+      <c r="E71">
+        <v>29</v>
+      </c>
+      <c r="F71" t="s">
+        <v>23</v>
+      </c>
+      <c r="G71">
+        <v>0.6</v>
+      </c>
+      <c r="H71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>9.7549999999999998E-2</v>
+      </c>
+      <c r="K71">
+        <v>0.30340499999999998</v>
+      </c>
+      <c r="L71">
+        <v>0.50761400000000001</v>
+      </c>
+      <c r="M71">
+        <v>9.8984769999999997</v>
+      </c>
+      <c r="N71">
+        <v>0.53852599999999995</v>
+      </c>
+      <c r="O71">
+        <v>2.82</v>
+      </c>
+      <c r="P71">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72">
+        <v>100</v>
+      </c>
+      <c r="C72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72">
+        <v>400</v>
+      </c>
+      <c r="E72">
+        <v>29</v>
+      </c>
+      <c r="F72" t="s">
+        <v>23</v>
+      </c>
+      <c r="G72">
+        <v>0.6</v>
+      </c>
+      <c r="H72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I72">
+        <v>3</v>
+      </c>
+      <c r="J72">
+        <v>8.3424999999999999E-2</v>
+      </c>
+      <c r="K72">
+        <v>0.26549400000000001</v>
+      </c>
+      <c r="L72">
+        <v>0.360406</v>
+      </c>
+      <c r="M72">
+        <v>9.4974620000000005</v>
+      </c>
+      <c r="N72">
+        <v>0.61236500000000005</v>
+      </c>
+      <c r="O72">
+        <v>2.8</v>
+      </c>
+      <c r="P72">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73">
+        <v>100</v>
+      </c>
+      <c r="C73" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73">
+        <v>400</v>
+      </c>
+      <c r="E73">
+        <v>29</v>
+      </c>
+      <c r="F73" t="s">
+        <v>23</v>
+      </c>
+      <c r="G73">
+        <v>0.6</v>
+      </c>
+      <c r="H73" t="s">
+        <v>24</v>
+      </c>
+      <c r="I73">
+        <v>5</v>
+      </c>
+      <c r="J73">
+        <v>8.4307999999999994E-2</v>
+      </c>
+      <c r="K73">
+        <v>0.32434600000000002</v>
+      </c>
+      <c r="L73">
+        <v>0.370558</v>
+      </c>
+      <c r="M73">
+        <v>10.984772</v>
+      </c>
+      <c r="N73">
+        <v>0.58399100000000004</v>
+      </c>
+      <c r="O73">
+        <v>2.83</v>
+      </c>
+      <c r="P73">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74">
+        <v>100</v>
+      </c>
+      <c r="C74" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74">
+        <v>400</v>
+      </c>
+      <c r="E74">
+        <v>29</v>
+      </c>
+      <c r="F74" t="s">
+        <v>23</v>
+      </c>
+      <c r="G74">
+        <v>0.6</v>
+      </c>
+      <c r="H74" t="s">
+        <v>24</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>9.5784999999999995E-2</v>
+      </c>
+      <c r="K74">
+        <v>0.26135599999999998</v>
+      </c>
+      <c r="L74">
+        <v>0.50253800000000004</v>
+      </c>
+      <c r="M74">
+        <v>9.6548219999999993</v>
+      </c>
+      <c r="N74">
+        <v>0.57003499999999996</v>
+      </c>
+      <c r="O74">
+        <v>2.83</v>
+      </c>
+      <c r="P74">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75">
+        <v>100</v>
+      </c>
+      <c r="C75" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75">
+        <v>400</v>
+      </c>
+      <c r="E75">
+        <v>29</v>
+      </c>
+      <c r="F75" t="s">
+        <v>23</v>
+      </c>
+      <c r="G75">
+        <v>0.6</v>
+      </c>
+      <c r="H75" t="s">
+        <v>24</v>
+      </c>
+      <c r="I75">
+        <v>3</v>
+      </c>
+      <c r="J75">
+        <v>8.2542000000000004E-2</v>
+      </c>
+      <c r="K75">
+        <v>0.33621200000000001</v>
+      </c>
+      <c r="L75">
+        <v>0.375635</v>
+      </c>
+      <c r="M75">
+        <v>10.121827</v>
+      </c>
+      <c r="N75">
+        <v>0.56848699999999996</v>
+      </c>
+      <c r="O75">
+        <v>2.85</v>
+      </c>
+      <c r="P75">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76">
+        <v>100</v>
+      </c>
+      <c r="C76" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76">
+        <v>400</v>
+      </c>
+      <c r="E76">
+        <v>29</v>
+      </c>
+      <c r="F76" t="s">
+        <v>23</v>
+      </c>
+      <c r="G76">
+        <v>0.6</v>
+      </c>
+      <c r="H76" t="s">
+        <v>24</v>
+      </c>
+      <c r="I76">
+        <v>5</v>
+      </c>
+      <c r="J76">
+        <v>8.9605000000000004E-2</v>
+      </c>
+      <c r="K76">
+        <v>0.26658199999999999</v>
+      </c>
+      <c r="L76">
+        <v>0.426396</v>
+      </c>
+      <c r="M76">
+        <v>9.8274109999999997</v>
+      </c>
+      <c r="N76">
+        <v>0.60350199999999998</v>
+      </c>
+      <c r="O76">
+        <v>2.86</v>
+      </c>
+      <c r="P76">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="A77" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77">
+        <v>100</v>
+      </c>
+      <c r="C77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77">
+        <v>400</v>
+      </c>
+      <c r="E77">
+        <v>29</v>
+      </c>
+      <c r="F77" t="s">
+        <v>23</v>
+      </c>
+      <c r="G77">
+        <v>0.8</v>
+      </c>
+      <c r="H77" t="s">
+        <v>24</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>9.9756999999999998E-2</v>
+      </c>
+      <c r="K77">
+        <v>0.29267100000000001</v>
+      </c>
+      <c r="L77">
+        <v>0.53807099999999997</v>
+      </c>
+      <c r="M77">
+        <v>10.055838</v>
+      </c>
+      <c r="N77">
+        <v>0.54461300000000001</v>
+      </c>
+      <c r="O77">
+        <v>2.96</v>
+      </c>
+      <c r="P77">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78">
+        <v>100</v>
+      </c>
+      <c r="C78" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78">
+        <v>400</v>
+      </c>
+      <c r="E78">
+        <v>29</v>
+      </c>
+      <c r="F78" t="s">
+        <v>23</v>
+      </c>
+      <c r="G78">
+        <v>0.8</v>
+      </c>
+      <c r="H78" t="s">
+        <v>24</v>
+      </c>
+      <c r="I78">
+        <v>3</v>
+      </c>
+      <c r="J78">
+        <v>9.8211999999999994E-2</v>
+      </c>
+      <c r="K78">
+        <v>0.26077</v>
+      </c>
+      <c r="L78">
+        <v>0.56852800000000003</v>
+      </c>
+      <c r="M78">
+        <v>8.4923859999999998</v>
+      </c>
+      <c r="N78">
+        <v>0.56566499999999997</v>
+      </c>
+      <c r="O78">
+        <v>3.4</v>
+      </c>
+      <c r="P78">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="A79" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79">
+        <v>100</v>
+      </c>
+      <c r="C79" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79">
+        <v>400</v>
+      </c>
+      <c r="E79">
+        <v>29</v>
+      </c>
+      <c r="F79" t="s">
+        <v>23</v>
+      </c>
+      <c r="G79">
+        <v>0.8</v>
+      </c>
+      <c r="H79" t="s">
+        <v>24</v>
+      </c>
+      <c r="I79">
+        <v>5</v>
+      </c>
+      <c r="J79">
+        <v>9.8433000000000007E-2</v>
+      </c>
+      <c r="K79">
+        <v>0.30695800000000001</v>
+      </c>
+      <c r="L79">
+        <v>0.55837599999999998</v>
+      </c>
+      <c r="M79">
+        <v>10.065989999999999</v>
+      </c>
+      <c r="N79">
+        <v>0.53280099999999997</v>
+      </c>
+      <c r="O79">
+        <v>3</v>
+      </c>
+      <c r="P79">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="A80" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80">
+        <v>100</v>
+      </c>
+      <c r="C80" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80">
+        <v>400</v>
+      </c>
+      <c r="E80">
+        <v>29</v>
+      </c>
+      <c r="F80" t="s">
+        <v>23</v>
+      </c>
+      <c r="G80">
+        <v>0.8</v>
+      </c>
+      <c r="H80" t="s">
+        <v>24</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>0.10063999999999999</v>
+      </c>
+      <c r="K80">
+        <v>0.26977699999999999</v>
+      </c>
+      <c r="L80">
+        <v>0.573604</v>
+      </c>
+      <c r="M80">
+        <v>9.7715739999999993</v>
+      </c>
+      <c r="N80">
+        <v>0.55351600000000001</v>
+      </c>
+      <c r="O80">
+        <v>2.95</v>
+      </c>
+      <c r="P80">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="A81" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81">
+        <v>100</v>
+      </c>
+      <c r="C81" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81">
+        <v>400</v>
+      </c>
+      <c r="E81">
+        <v>29</v>
+      </c>
+      <c r="F81" t="s">
+        <v>23</v>
+      </c>
+      <c r="G81">
+        <v>0.8</v>
+      </c>
+      <c r="H81" t="s">
+        <v>24</v>
+      </c>
+      <c r="I81">
+        <v>3</v>
+      </c>
+      <c r="J81">
+        <v>9.7109000000000001E-2</v>
+      </c>
+      <c r="K81">
+        <v>0.32018000000000002</v>
+      </c>
+      <c r="L81">
+        <v>0.52284299999999995</v>
+      </c>
+      <c r="M81">
+        <v>9.7664969999999993</v>
+      </c>
+      <c r="N81">
+        <v>0.52697700000000003</v>
+      </c>
+      <c r="O81">
+        <v>2.97</v>
+      </c>
+      <c r="P81">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
+      <c r="A82" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82">
+        <v>100</v>
+      </c>
+      <c r="C82" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82">
+        <v>400</v>
+      </c>
+      <c r="E82">
+        <v>29</v>
+      </c>
+      <c r="F82" t="s">
+        <v>23</v>
+      </c>
+      <c r="G82">
+        <v>0.8</v>
+      </c>
+      <c r="H82" t="s">
+        <v>24</v>
+      </c>
+      <c r="I82">
+        <v>5</v>
+      </c>
+      <c r="J82">
+        <v>8.0777000000000002E-2</v>
+      </c>
+      <c r="K82">
+        <v>0.34738799999999997</v>
+      </c>
+      <c r="L82">
+        <v>0.34517799999999998</v>
+      </c>
+      <c r="M82">
+        <v>10.86802</v>
+      </c>
+      <c r="N82">
+        <v>0.568133</v>
+      </c>
+      <c r="O82">
+        <v>3.2</v>
+      </c>
+      <c r="P82">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
+      <c r="A83" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83">
+        <v>100</v>
+      </c>
+      <c r="C83" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83">
+        <v>400</v>
+      </c>
+      <c r="E83">
+        <v>29</v>
+      </c>
+      <c r="F83" t="s">
+        <v>23</v>
+      </c>
+      <c r="G83">
+        <v>0.8</v>
+      </c>
+      <c r="H83" t="s">
+        <v>24</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>8.1879999999999994E-2</v>
+      </c>
+      <c r="K83">
+        <v>0.300398</v>
+      </c>
+      <c r="L83">
+        <v>0.36548199999999997</v>
+      </c>
+      <c r="M83">
+        <v>10.522843</v>
+      </c>
+      <c r="N83">
+        <v>0.59374199999999999</v>
+      </c>
+      <c r="O83">
+        <v>2.98</v>
+      </c>
+      <c r="P83">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
+      <c r="A84" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84">
+        <v>100</v>
+      </c>
+      <c r="C84" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84">
+        <v>400</v>
+      </c>
+      <c r="E84">
+        <v>29</v>
+      </c>
+      <c r="F84" t="s">
+        <v>23</v>
+      </c>
+      <c r="G84">
+        <v>0.8</v>
+      </c>
+      <c r="H84" t="s">
+        <v>24</v>
+      </c>
+      <c r="I84">
+        <v>3</v>
+      </c>
+      <c r="J84">
+        <v>9.3798000000000006E-2</v>
+      </c>
+      <c r="K84">
+        <v>0.31870999999999999</v>
+      </c>
+      <c r="L84">
+        <v>0.51268999999999998</v>
+      </c>
+      <c r="M84">
+        <v>10.208121999999999</v>
+      </c>
+      <c r="N84">
+        <v>0.54457599999999995</v>
+      </c>
+      <c r="O84">
+        <v>3.06</v>
+      </c>
+      <c r="P84">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
+      <c r="A85" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85">
+        <v>100</v>
+      </c>
+      <c r="C85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85">
+        <v>400</v>
+      </c>
+      <c r="E85">
+        <v>29</v>
+      </c>
+      <c r="F85" t="s">
+        <v>23</v>
+      </c>
+      <c r="G85">
+        <v>0.8</v>
+      </c>
+      <c r="H85" t="s">
+        <v>24</v>
+      </c>
+      <c r="I85">
+        <v>5</v>
+      </c>
+      <c r="J85">
+        <v>9.7549999999999998E-2</v>
+      </c>
+      <c r="K85">
+        <v>0.35392299999999999</v>
+      </c>
+      <c r="L85">
+        <v>0.55329899999999999</v>
+      </c>
+      <c r="M85">
+        <v>10.979695</v>
+      </c>
+      <c r="N85">
+        <v>0.51544299999999998</v>
+      </c>
+      <c r="O85">
+        <v>2.96</v>
+      </c>
+      <c r="P85">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
+      <c r="A86" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86">
+        <v>100</v>
+      </c>
+      <c r="C86" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86">
+        <v>600</v>
+      </c>
+      <c r="E86">
+        <v>36</v>
+      </c>
+      <c r="F86" t="s">
+        <v>23</v>
+      </c>
+      <c r="G86">
+        <v>0.2</v>
+      </c>
+      <c r="H86" t="s">
+        <v>24</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>6.1134000000000001E-2</v>
+      </c>
+      <c r="K86">
+        <v>0.17430200000000001</v>
+      </c>
+      <c r="L86">
+        <v>0.23857900000000001</v>
+      </c>
+      <c r="M86">
+        <v>7.1065990000000001</v>
+      </c>
+      <c r="N86">
+        <v>0.73121499999999995</v>
+      </c>
+      <c r="O86">
+        <v>2.65</v>
+      </c>
+      <c r="P86">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
+      <c r="A87" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87">
+        <v>100</v>
+      </c>
+      <c r="C87" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87">
+        <v>600</v>
+      </c>
+      <c r="E87">
+        <v>36</v>
+      </c>
+      <c r="F87" t="s">
+        <v>23</v>
+      </c>
+      <c r="G87">
+        <v>0.2</v>
+      </c>
+      <c r="H87" t="s">
+        <v>24</v>
+      </c>
+      <c r="I87">
+        <v>3</v>
+      </c>
+      <c r="J87">
+        <v>6.0471999999999998E-2</v>
+      </c>
+      <c r="K87">
+        <v>0.17261199999999999</v>
+      </c>
+      <c r="L87">
+        <v>0.263959</v>
+      </c>
+      <c r="M87">
+        <v>7.4162439999999998</v>
+      </c>
+      <c r="N87">
+        <v>0.70877299999999999</v>
+      </c>
+      <c r="O87">
+        <v>2.62</v>
+      </c>
+      <c r="P87">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
+      <c r="A88" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88">
+        <v>100</v>
+      </c>
+      <c r="C88" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88">
+        <v>600</v>
+      </c>
+      <c r="E88">
+        <v>36</v>
+      </c>
+      <c r="F88" t="s">
+        <v>23</v>
+      </c>
+      <c r="G88">
+        <v>0.2</v>
+      </c>
+      <c r="H88" t="s">
+        <v>24</v>
+      </c>
+      <c r="I88">
+        <v>5</v>
+      </c>
+      <c r="J88">
+        <v>5.2305999999999998E-2</v>
+      </c>
+      <c r="K88">
+        <v>0.13736100000000001</v>
+      </c>
+      <c r="L88">
+        <v>0.18781700000000001</v>
+      </c>
+      <c r="M88">
+        <v>6.1878169999999999</v>
+      </c>
+      <c r="N88">
+        <v>0.76211499999999999</v>
+      </c>
+      <c r="O88">
+        <v>2.65</v>
+      </c>
+      <c r="P88">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
+      <c r="A89" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89">
+        <v>100</v>
+      </c>
+      <c r="C89" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89">
+        <v>600</v>
+      </c>
+      <c r="E89">
+        <v>36</v>
+      </c>
+      <c r="F89" t="s">
+        <v>23</v>
+      </c>
+      <c r="G89">
+        <v>0.2</v>
+      </c>
+      <c r="H89" t="s">
+        <v>24</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>6.3120999999999997E-2</v>
+      </c>
+      <c r="K89">
+        <v>0.15489</v>
+      </c>
+      <c r="L89">
+        <v>0.263959</v>
+      </c>
+      <c r="M89">
+        <v>6.8477160000000001</v>
+      </c>
+      <c r="N89">
+        <v>0.72347899999999998</v>
+      </c>
+      <c r="O89">
+        <v>2.64</v>
+      </c>
+      <c r="P89">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
+      <c r="A90" t="s">
+        <v>15</v>
+      </c>
+      <c r="B90">
+        <v>100</v>
+      </c>
+      <c r="C90" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90">
+        <v>600</v>
+      </c>
+      <c r="E90">
+        <v>36</v>
+      </c>
+      <c r="F90" t="s">
+        <v>23</v>
+      </c>
+      <c r="G90">
+        <v>0.2</v>
+      </c>
+      <c r="H90" t="s">
+        <v>24</v>
+      </c>
+      <c r="I90">
+        <v>3</v>
+      </c>
+      <c r="J90">
+        <v>5.8264999999999997E-2</v>
+      </c>
+      <c r="K90">
+        <v>0.15368299999999999</v>
+      </c>
+      <c r="L90">
+        <v>0.253807</v>
+      </c>
+      <c r="M90">
+        <v>6.7766500000000001</v>
+      </c>
+      <c r="N90">
+        <v>0.738205</v>
+      </c>
+      <c r="O90">
+        <v>2.65</v>
+      </c>
+      <c r="P90">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
+      <c r="A91" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91">
+        <v>100</v>
+      </c>
+      <c r="C91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91">
+        <v>600</v>
+      </c>
+      <c r="E91">
+        <v>36</v>
+      </c>
+      <c r="F91" t="s">
+        <v>23</v>
+      </c>
+      <c r="G91">
+        <v>0.2</v>
+      </c>
+      <c r="H91" t="s">
+        <v>24</v>
+      </c>
+      <c r="I91">
+        <v>5</v>
+      </c>
+      <c r="J91">
+        <v>6.0471999999999998E-2</v>
+      </c>
+      <c r="K91">
+        <v>0.143846</v>
+      </c>
+      <c r="L91">
+        <v>0.23857900000000001</v>
+      </c>
+      <c r="M91">
+        <v>6.2538070000000001</v>
+      </c>
+      <c r="N91">
+        <v>0.733765</v>
+      </c>
+      <c r="O91">
+        <v>2.69</v>
+      </c>
+      <c r="P91">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
+      <c r="A92" t="s">
+        <v>15</v>
+      </c>
+      <c r="B92">
+        <v>100</v>
+      </c>
+      <c r="C92" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92">
+        <v>600</v>
+      </c>
+      <c r="E92">
+        <v>36</v>
+      </c>
+      <c r="F92" t="s">
+        <v>23</v>
+      </c>
+      <c r="G92">
+        <v>0.2</v>
+      </c>
+      <c r="H92" t="s">
+        <v>24</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>6.1134000000000001E-2</v>
+      </c>
+      <c r="K92">
+        <v>0.157448</v>
+      </c>
+      <c r="L92">
+        <v>0.23350299999999999</v>
+      </c>
+      <c r="M92">
+        <v>6.8578679999999999</v>
+      </c>
+      <c r="N92">
+        <v>0.72444299999999995</v>
+      </c>
+      <c r="O92">
+        <v>2.67</v>
+      </c>
+      <c r="P92">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
+      <c r="A93" t="s">
+        <v>15</v>
+      </c>
+      <c r="B93">
+        <v>100</v>
+      </c>
+      <c r="C93" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93">
+        <v>600</v>
+      </c>
+      <c r="E93">
+        <v>36</v>
+      </c>
+      <c r="F93" t="s">
+        <v>23</v>
+      </c>
+      <c r="G93">
+        <v>0.2</v>
+      </c>
+      <c r="H93" t="s">
+        <v>24</v>
+      </c>
+      <c r="I93">
+        <v>3</v>
+      </c>
+      <c r="J93">
+        <v>5.8927E-2</v>
+      </c>
+      <c r="K93">
+        <v>0.16151299999999999</v>
+      </c>
+      <c r="L93">
+        <v>0.22334999999999999</v>
+      </c>
+      <c r="M93">
+        <v>7.1776650000000002</v>
+      </c>
+      <c r="N93">
+        <v>0.723522</v>
+      </c>
+      <c r="O93">
+        <v>2.66</v>
+      </c>
+      <c r="P93">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
+      <c r="A94" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94">
+        <v>100</v>
+      </c>
+      <c r="C94" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94">
+        <v>600</v>
+      </c>
+      <c r="E94">
+        <v>36</v>
+      </c>
+      <c r="F94" t="s">
+        <v>23</v>
+      </c>
+      <c r="G94">
+        <v>0.2</v>
+      </c>
+      <c r="H94" t="s">
+        <v>24</v>
+      </c>
+      <c r="I94">
+        <v>5</v>
+      </c>
+      <c r="J94">
+        <v>6.0031000000000001E-2</v>
+      </c>
+      <c r="K94">
+        <v>0.156553</v>
+      </c>
+      <c r="L94">
+        <v>0.253807</v>
+      </c>
+      <c r="M94">
+        <v>7.1928929999999998</v>
+      </c>
+      <c r="N94">
+        <v>0.72186099999999997</v>
+      </c>
+      <c r="O94">
+        <v>2.69</v>
+      </c>
+      <c r="P94">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
+      <c r="A95" t="s">
+        <v>15</v>
+      </c>
+      <c r="B95">
+        <v>100</v>
+      </c>
+      <c r="C95" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95">
+        <v>600</v>
+      </c>
+      <c r="E95">
+        <v>36</v>
+      </c>
+      <c r="F95" t="s">
+        <v>23</v>
+      </c>
+      <c r="G95">
+        <v>0.4</v>
+      </c>
+      <c r="H95" t="s">
+        <v>24</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>5.7161999999999998E-2</v>
+      </c>
+      <c r="K95">
+        <v>0.20086100000000001</v>
+      </c>
+      <c r="L95">
+        <v>0.253807</v>
+      </c>
+      <c r="M95">
+        <v>8.0862940000000005</v>
+      </c>
+      <c r="N95">
+        <v>0.71620700000000004</v>
+      </c>
+      <c r="O95">
+        <v>2.82</v>
+      </c>
+      <c r="P95">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
+      <c r="A96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96">
+        <v>100</v>
+      </c>
+      <c r="C96" t="s">
+        <v>18</v>
+      </c>
+      <c r="D96">
+        <v>600</v>
+      </c>
+      <c r="E96">
+        <v>36</v>
+      </c>
+      <c r="F96" t="s">
+        <v>23</v>
+      </c>
+      <c r="G96">
+        <v>0.4</v>
+      </c>
+      <c r="H96" t="s">
+        <v>24</v>
+      </c>
+      <c r="I96">
+        <v>3</v>
+      </c>
+      <c r="J96">
+        <v>5.5175000000000002E-2</v>
+      </c>
+      <c r="K96">
+        <v>0.166826</v>
+      </c>
+      <c r="L96">
+        <v>0.218274</v>
+      </c>
+      <c r="M96">
+        <v>7.4365480000000002</v>
+      </c>
+      <c r="N96">
+        <v>0.72903099999999998</v>
+      </c>
+      <c r="O96">
+        <v>2.83</v>
+      </c>
+      <c r="P96">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
+      <c r="A97" t="s">
+        <v>15</v>
+      </c>
+      <c r="B97">
+        <v>100</v>
+      </c>
+      <c r="C97" t="s">
+        <v>18</v>
+      </c>
+      <c r="D97">
+        <v>600</v>
+      </c>
+      <c r="E97">
+        <v>36</v>
+      </c>
+      <c r="F97" t="s">
+        <v>23</v>
+      </c>
+      <c r="G97">
+        <v>0.4</v>
+      </c>
+      <c r="H97" t="s">
+        <v>24</v>
+      </c>
+      <c r="I97">
+        <v>5</v>
+      </c>
+      <c r="J97">
+        <v>5.9368999999999998E-2</v>
+      </c>
+      <c r="K97">
+        <v>0.176311</v>
+      </c>
+      <c r="L97">
+        <v>0.24873100000000001</v>
+      </c>
+      <c r="M97">
+        <v>7.6497460000000004</v>
+      </c>
+      <c r="N97">
+        <v>0.72231500000000004</v>
+      </c>
+      <c r="O97">
+        <v>2.82</v>
+      </c>
+      <c r="P97">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
+      <c r="A98" t="s">
+        <v>15</v>
+      </c>
+      <c r="B98">
+        <v>100</v>
+      </c>
+      <c r="C98" t="s">
+        <v>18</v>
+      </c>
+      <c r="D98">
+        <v>600</v>
+      </c>
+      <c r="E98">
+        <v>36</v>
+      </c>
+      <c r="F98" t="s">
+        <v>23</v>
+      </c>
+      <c r="G98">
+        <v>0.4</v>
+      </c>
+      <c r="H98" t="s">
+        <v>24</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>5.8486000000000003E-2</v>
+      </c>
+      <c r="K98">
+        <v>0.16777</v>
+      </c>
+      <c r="L98">
+        <v>0.25888299999999997</v>
+      </c>
+      <c r="M98">
+        <v>7.1167509999999998</v>
+      </c>
+      <c r="N98">
+        <v>0.73302400000000001</v>
+      </c>
+      <c r="O98">
+        <v>2.82</v>
+      </c>
+      <c r="P98">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
+      <c r="A99" t="s">
+        <v>15</v>
+      </c>
+      <c r="B99">
+        <v>100</v>
+      </c>
+      <c r="C99" t="s">
+        <v>18</v>
+      </c>
+      <c r="D99">
+        <v>600</v>
+      </c>
+      <c r="E99">
+        <v>36</v>
+      </c>
+      <c r="F99" t="s">
+        <v>23</v>
+      </c>
+      <c r="G99">
+        <v>0.4</v>
+      </c>
+      <c r="H99" t="s">
+        <v>24</v>
+      </c>
+      <c r="I99">
+        <v>3</v>
+      </c>
+      <c r="J99">
+        <v>5.9368999999999998E-2</v>
+      </c>
+      <c r="K99">
+        <v>0.17677000000000001</v>
+      </c>
+      <c r="L99">
+        <v>0.253807</v>
+      </c>
+      <c r="M99">
+        <v>7.4314720000000003</v>
+      </c>
+      <c r="N99">
+        <v>0.73265899999999995</v>
+      </c>
+      <c r="O99">
+        <v>2.77</v>
+      </c>
+      <c r="P99">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
+      <c r="A100" t="s">
+        <v>15</v>
+      </c>
+      <c r="B100">
+        <v>100</v>
+      </c>
+      <c r="C100" t="s">
+        <v>18</v>
+      </c>
+      <c r="D100">
+        <v>600</v>
+      </c>
+      <c r="E100">
+        <v>36</v>
+      </c>
+      <c r="F100" t="s">
+        <v>23</v>
+      </c>
+      <c r="G100">
+        <v>0.4</v>
+      </c>
+      <c r="H100" t="s">
+        <v>24</v>
+      </c>
+      <c r="I100">
+        <v>5</v>
+      </c>
+      <c r="J100">
+        <v>5.5396000000000001E-2</v>
+      </c>
+      <c r="K100">
+        <v>0.172511</v>
+      </c>
+      <c r="L100">
+        <v>0.23350299999999999</v>
+      </c>
+      <c r="M100">
+        <v>7.4720810000000002</v>
+      </c>
+      <c r="N100">
+        <v>0.73261299999999996</v>
+      </c>
+      <c r="O100">
+        <v>2.79</v>
+      </c>
+      <c r="P100">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
+      <c r="A101" t="s">
+        <v>15</v>
+      </c>
+      <c r="B101">
+        <v>100</v>
+      </c>
+      <c r="C101" t="s">
+        <v>18</v>
+      </c>
+      <c r="D101">
+        <v>600</v>
+      </c>
+      <c r="E101">
+        <v>36</v>
+      </c>
+      <c r="F101" t="s">
+        <v>23</v>
+      </c>
+      <c r="G101">
+        <v>0.4</v>
+      </c>
+      <c r="H101" t="s">
+        <v>24</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>5.4512999999999999E-2</v>
+      </c>
+      <c r="K101">
+        <v>0.154664</v>
+      </c>
+      <c r="L101">
+        <v>0.19797000000000001</v>
+      </c>
+      <c r="M101">
+        <v>7.3553300000000004</v>
+      </c>
+      <c r="N101">
+        <v>0.75462200000000001</v>
+      </c>
+      <c r="O101">
+        <v>2.81</v>
+      </c>
+      <c r="P101">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16">
+      <c r="A102" t="s">
+        <v>15</v>
+      </c>
+      <c r="B102">
+        <v>100</v>
+      </c>
+      <c r="C102" t="s">
+        <v>18</v>
+      </c>
+      <c r="D102">
+        <v>600</v>
+      </c>
+      <c r="E102">
+        <v>36</v>
+      </c>
+      <c r="F102" t="s">
+        <v>23</v>
+      </c>
+      <c r="G102">
+        <v>0.4</v>
+      </c>
+      <c r="H102" t="s">
+        <v>24</v>
+      </c>
+      <c r="I102">
+        <v>3</v>
+      </c>
+      <c r="J102">
+        <v>5.9810000000000002E-2</v>
+      </c>
+      <c r="K102">
+        <v>0.176347</v>
+      </c>
+      <c r="L102">
+        <v>0.25888299999999997</v>
+      </c>
+      <c r="M102">
+        <v>7.3451779999999998</v>
+      </c>
+      <c r="N102">
+        <v>0.72121400000000002</v>
+      </c>
+      <c r="O102">
+        <v>2.78</v>
+      </c>
+      <c r="P102">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16">
+      <c r="A103" t="s">
+        <v>15</v>
+      </c>
+      <c r="B103">
+        <v>100</v>
+      </c>
+      <c r="C103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D103">
+        <v>600</v>
+      </c>
+      <c r="E103">
+        <v>36</v>
+      </c>
+      <c r="F103" t="s">
+        <v>23</v>
+      </c>
+      <c r="G103">
+        <v>0.4</v>
+      </c>
+      <c r="H103" t="s">
+        <v>24</v>
+      </c>
+      <c r="I103">
+        <v>5</v>
+      </c>
+      <c r="J103">
+        <v>6.0031000000000001E-2</v>
+      </c>
+      <c r="K103">
+        <v>0.172318</v>
+      </c>
+      <c r="L103">
+        <v>0.253807</v>
+      </c>
+      <c r="M103">
+        <v>7.6446699999999996</v>
+      </c>
+      <c r="N103">
+        <v>0.72925099999999998</v>
+      </c>
+      <c r="O103">
+        <v>2.79</v>
+      </c>
+      <c r="P103">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16">
+      <c r="A104" t="s">
+        <v>15</v>
+      </c>
+      <c r="B104">
+        <v>100</v>
+      </c>
+      <c r="C104" t="s">
+        <v>18</v>
+      </c>
+      <c r="D104">
+        <v>600</v>
+      </c>
+      <c r="E104">
+        <v>36</v>
+      </c>
+      <c r="F104" t="s">
+        <v>23</v>
+      </c>
+      <c r="G104">
+        <v>0.6</v>
+      </c>
+      <c r="H104" t="s">
+        <v>24</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>5.8707000000000002E-2</v>
+      </c>
+      <c r="K104">
+        <v>0.19864799999999999</v>
+      </c>
+      <c r="L104">
+        <v>0.25888299999999997</v>
+      </c>
+      <c r="M104">
+        <v>8.2081219999999995</v>
+      </c>
+      <c r="N104">
+        <v>0.71506899999999995</v>
+      </c>
+      <c r="O104">
+        <v>2.98</v>
+      </c>
+      <c r="P104">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16">
+      <c r="A105" t="s">
+        <v>15</v>
+      </c>
+      <c r="B105">
+        <v>100</v>
+      </c>
+      <c r="C105" t="s">
+        <v>18</v>
+      </c>
+      <c r="D105">
+        <v>600</v>
+      </c>
+      <c r="E105">
+        <v>36</v>
+      </c>
+      <c r="F105" t="s">
+        <v>23</v>
+      </c>
+      <c r="G105">
+        <v>0.6</v>
+      </c>
+      <c r="H105" t="s">
+        <v>24</v>
+      </c>
+      <c r="I105">
+        <v>3</v>
+      </c>
+      <c r="J105">
+        <v>5.9147999999999999E-2</v>
+      </c>
+      <c r="K105">
+        <v>0.17530499999999999</v>
+      </c>
+      <c r="L105">
+        <v>0.29441600000000001</v>
+      </c>
+      <c r="M105">
+        <v>7.2741119999999997</v>
+      </c>
+      <c r="N105">
+        <v>0.70784499999999995</v>
+      </c>
+      <c r="O105">
+        <v>3</v>
+      </c>
+      <c r="P105">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16">
+      <c r="A106" t="s">
+        <v>15</v>
+      </c>
+      <c r="B106">
+        <v>100</v>
+      </c>
+      <c r="C106" t="s">
+        <v>18</v>
+      </c>
+      <c r="D106">
+        <v>600</v>
+      </c>
+      <c r="E106">
+        <v>36</v>
+      </c>
+      <c r="F106" t="s">
+        <v>23</v>
+      </c>
+      <c r="G106">
+        <v>0.6</v>
+      </c>
+      <c r="H106" t="s">
+        <v>24</v>
+      </c>
+      <c r="I106">
+        <v>5</v>
+      </c>
+      <c r="J106">
+        <v>5.3189E-2</v>
+      </c>
+      <c r="K106">
+        <v>0.169714</v>
+      </c>
+      <c r="L106">
+        <v>0.22334999999999999</v>
+      </c>
+      <c r="M106">
+        <v>7.553299</v>
+      </c>
+      <c r="N106">
+        <v>0.73536900000000005</v>
+      </c>
+      <c r="O106">
+        <v>3.02</v>
+      </c>
+      <c r="P106">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16">
+      <c r="A107" t="s">
+        <v>15</v>
+      </c>
+      <c r="B107">
+        <v>100</v>
+      </c>
+      <c r="C107" t="s">
+        <v>18</v>
+      </c>
+      <c r="D107">
+        <v>600</v>
+      </c>
+      <c r="E107">
+        <v>36</v>
+      </c>
+      <c r="F107" t="s">
+        <v>23</v>
+      </c>
+      <c r="G107">
+        <v>0.6</v>
+      </c>
+      <c r="H107" t="s">
+        <v>24</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>5.9589000000000003E-2</v>
+      </c>
+      <c r="K107">
+        <v>0.15082100000000001</v>
+      </c>
+      <c r="L107">
+        <v>0.27918799999999999</v>
+      </c>
+      <c r="M107">
+        <v>7.1776650000000002</v>
+      </c>
+      <c r="N107">
+        <v>0.72576399999999996</v>
+      </c>
+      <c r="O107">
+        <v>2.96</v>
+      </c>
+      <c r="P107">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16">
+      <c r="A108" t="s">
+        <v>15</v>
+      </c>
+      <c r="B108">
+        <v>100</v>
+      </c>
+      <c r="C108" t="s">
+        <v>18</v>
+      </c>
+      <c r="D108">
+        <v>600</v>
+      </c>
+      <c r="E108">
+        <v>36</v>
+      </c>
+      <c r="F108" t="s">
+        <v>23</v>
+      </c>
+      <c r="G108">
+        <v>0.6</v>
+      </c>
+      <c r="H108" t="s">
+        <v>24</v>
+      </c>
+      <c r="I108">
+        <v>3</v>
+      </c>
+      <c r="J108">
+        <v>5.8707000000000002E-2</v>
+      </c>
+      <c r="K108">
+        <v>0.18165700000000001</v>
+      </c>
+      <c r="L108">
+        <v>0.27411200000000002</v>
+      </c>
+      <c r="M108">
+        <v>7.4010150000000001</v>
+      </c>
+      <c r="N108">
+        <v>0.707959</v>
+      </c>
+      <c r="O108">
+        <v>2.96</v>
+      </c>
+      <c r="P108">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16">
+      <c r="A109" t="s">
+        <v>15</v>
+      </c>
+      <c r="B109">
+        <v>100</v>
+      </c>
+      <c r="C109" t="s">
+        <v>18</v>
+      </c>
+      <c r="D109">
+        <v>600</v>
+      </c>
+      <c r="E109">
+        <v>36</v>
+      </c>
+      <c r="F109" t="s">
+        <v>23</v>
+      </c>
+      <c r="G109">
+        <v>0.6</v>
+      </c>
+      <c r="H109" t="s">
+        <v>24</v>
+      </c>
+      <c r="I109">
+        <v>5</v>
+      </c>
+      <c r="J109">
+        <v>5.4512999999999999E-2</v>
+      </c>
+      <c r="K109">
+        <v>0.181314</v>
+      </c>
+      <c r="L109">
+        <v>0.22842599999999999</v>
+      </c>
+      <c r="M109">
+        <v>7.6294420000000001</v>
+      </c>
+      <c r="N109">
+        <v>0.72788399999999998</v>
+      </c>
+      <c r="O109">
+        <v>2.97</v>
+      </c>
+      <c r="P109">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16">
+      <c r="A110" t="s">
+        <v>15</v>
+      </c>
+      <c r="B110">
+        <v>100</v>
+      </c>
+      <c r="C110" t="s">
+        <v>18</v>
+      </c>
+      <c r="D110">
+        <v>600</v>
+      </c>
+      <c r="E110">
+        <v>36</v>
+      </c>
+      <c r="F110" t="s">
+        <v>23</v>
+      </c>
+      <c r="G110">
+        <v>0.6</v>
+      </c>
+      <c r="H110" t="s">
+        <v>24</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110">
+        <v>5.8486000000000003E-2</v>
+      </c>
+      <c r="K110">
+        <v>0.19384299999999999</v>
+      </c>
+      <c r="L110">
+        <v>0.24873100000000001</v>
+      </c>
+      <c r="M110">
+        <v>7.7461929999999999</v>
+      </c>
+      <c r="N110">
+        <v>0.72260199999999997</v>
+      </c>
+      <c r="O110">
+        <v>2.98</v>
+      </c>
+      <c r="P110">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16">
+      <c r="A111" t="s">
+        <v>15</v>
+      </c>
+      <c r="B111">
+        <v>100</v>
+      </c>
+      <c r="C111" t="s">
+        <v>18</v>
+      </c>
+      <c r="D111">
+        <v>600</v>
+      </c>
+      <c r="E111">
+        <v>36</v>
+      </c>
+      <c r="F111" t="s">
+        <v>23</v>
+      </c>
+      <c r="G111">
+        <v>0.6</v>
+      </c>
+      <c r="H111" t="s">
+        <v>24</v>
+      </c>
+      <c r="I111">
+        <v>3</v>
+      </c>
+      <c r="J111">
+        <v>5.4072000000000002E-2</v>
+      </c>
+      <c r="K111">
+        <v>0.18335699999999999</v>
+      </c>
+      <c r="L111">
+        <v>0.23350299999999999</v>
+      </c>
+      <c r="M111">
+        <v>7.6345179999999999</v>
+      </c>
+      <c r="N111">
+        <v>0.73513099999999998</v>
+      </c>
+      <c r="O111">
+        <v>2.94</v>
+      </c>
+      <c r="P111">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16">
+      <c r="A112" t="s">
+        <v>15</v>
+      </c>
+      <c r="B112">
+        <v>100</v>
+      </c>
+      <c r="C112" t="s">
+        <v>18</v>
+      </c>
+      <c r="D112">
+        <v>600</v>
+      </c>
+      <c r="E112">
+        <v>36</v>
+      </c>
+      <c r="F112" t="s">
+        <v>23</v>
+      </c>
+      <c r="G112">
+        <v>0.6</v>
+      </c>
+      <c r="H112" t="s">
+        <v>24</v>
+      </c>
+      <c r="I112">
+        <v>5</v>
+      </c>
+      <c r="J112">
+        <v>5.4293000000000001E-2</v>
+      </c>
+      <c r="K112">
+        <v>0.14074600000000001</v>
+      </c>
+      <c r="L112">
+        <v>0.22842599999999999</v>
+      </c>
+      <c r="M112">
+        <v>6.5837560000000002</v>
+      </c>
+      <c r="N112">
+        <v>0.73776600000000003</v>
+      </c>
+      <c r="O112">
+        <v>2.98</v>
+      </c>
+      <c r="P112">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16">
+      <c r="A113" t="s">
+        <v>15</v>
+      </c>
+      <c r="B113">
+        <v>100</v>
+      </c>
+      <c r="C113" t="s">
+        <v>18</v>
+      </c>
+      <c r="D113">
+        <v>600</v>
+      </c>
+      <c r="E113">
+        <v>36</v>
+      </c>
+      <c r="F113" t="s">
+        <v>23</v>
+      </c>
+      <c r="G113">
+        <v>0.8</v>
+      </c>
+      <c r="H113" t="s">
+        <v>24</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>5.8486000000000003E-2</v>
+      </c>
+      <c r="K113">
+        <v>0.16936499999999999</v>
+      </c>
+      <c r="L113">
+        <v>0.24365500000000001</v>
+      </c>
+      <c r="M113">
+        <v>7.2994919999999999</v>
+      </c>
+      <c r="N113">
+        <v>0.72962000000000005</v>
+      </c>
+      <c r="O113">
+        <v>3.14</v>
+      </c>
+      <c r="P113">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16">
+      <c r="A114" t="s">
+        <v>15</v>
+      </c>
+      <c r="B114">
+        <v>100</v>
+      </c>
+      <c r="C114" t="s">
+        <v>18</v>
+      </c>
+      <c r="D114">
+        <v>600</v>
+      </c>
+      <c r="E114">
+        <v>36</v>
+      </c>
+      <c r="F114" t="s">
+        <v>23</v>
+      </c>
+      <c r="G114">
+        <v>0.8</v>
+      </c>
+      <c r="H114" t="s">
+        <v>24</v>
+      </c>
+      <c r="I114">
+        <v>3</v>
+      </c>
+      <c r="J114">
+        <v>5.8707000000000002E-2</v>
+      </c>
+      <c r="K114">
+        <v>0.20557900000000001</v>
+      </c>
+      <c r="L114">
+        <v>0.24365500000000001</v>
+      </c>
+      <c r="M114">
+        <v>8.2081219999999995</v>
+      </c>
+      <c r="N114">
+        <v>0.71481600000000001</v>
+      </c>
+      <c r="O114">
+        <v>3.11</v>
+      </c>
+      <c r="P114">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16">
+      <c r="A115" t="s">
+        <v>15</v>
+      </c>
+      <c r="B115">
+        <v>100</v>
+      </c>
+      <c r="C115" t="s">
+        <v>18</v>
+      </c>
+      <c r="D115">
+        <v>600</v>
+      </c>
+      <c r="E115">
+        <v>36</v>
+      </c>
+      <c r="F115" t="s">
+        <v>23</v>
+      </c>
+      <c r="G115">
+        <v>0.8</v>
+      </c>
+      <c r="H115" t="s">
+        <v>24</v>
+      </c>
+      <c r="I115">
+        <v>5</v>
+      </c>
+      <c r="J115">
+        <v>5.8044999999999999E-2</v>
+      </c>
+      <c r="K115">
+        <v>0.14902000000000001</v>
+      </c>
+      <c r="L115">
+        <v>0.27411200000000002</v>
+      </c>
+      <c r="M115">
+        <v>6.8274109999999997</v>
+      </c>
+      <c r="N115">
+        <v>0.73360300000000001</v>
+      </c>
+      <c r="O115">
+        <v>3.09</v>
+      </c>
+      <c r="P115">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16">
+      <c r="A116" t="s">
+        <v>15</v>
+      </c>
+      <c r="B116">
+        <v>100</v>
+      </c>
+      <c r="C116" t="s">
+        <v>18</v>
+      </c>
+      <c r="D116">
+        <v>600</v>
+      </c>
+      <c r="E116">
+        <v>36</v>
+      </c>
+      <c r="F116" t="s">
+        <v>23</v>
+      </c>
+      <c r="G116">
+        <v>0.8</v>
+      </c>
+      <c r="H116" t="s">
+        <v>24</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>5.4954999999999997E-2</v>
+      </c>
+      <c r="K116">
+        <v>0.157027</v>
+      </c>
+      <c r="L116">
+        <v>0.23857900000000001</v>
+      </c>
+      <c r="M116">
+        <v>7.0050759999999999</v>
+      </c>
+      <c r="N116">
+        <v>0.74203200000000002</v>
+      </c>
+      <c r="O116">
+        <v>3.14</v>
+      </c>
+      <c r="P116">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16">
+      <c r="A117" t="s">
+        <v>15</v>
+      </c>
+      <c r="B117">
+        <v>100</v>
+      </c>
+      <c r="C117" t="s">
+        <v>18</v>
+      </c>
+      <c r="D117">
+        <v>600</v>
+      </c>
+      <c r="E117">
+        <v>36</v>
+      </c>
+      <c r="F117" t="s">
+        <v>23</v>
+      </c>
+      <c r="G117">
+        <v>0.8</v>
+      </c>
+      <c r="H117" t="s">
+        <v>24</v>
+      </c>
+      <c r="I117">
+        <v>3</v>
+      </c>
+      <c r="J117">
+        <v>5.8264999999999997E-2</v>
+      </c>
+      <c r="K117">
+        <v>0.17169699999999999</v>
+      </c>
+      <c r="L117">
+        <v>0.27411200000000002</v>
+      </c>
+      <c r="M117">
+        <v>7.4162439999999998</v>
+      </c>
+      <c r="N117">
+        <v>0.718727</v>
+      </c>
+      <c r="O117">
+        <v>3.13</v>
+      </c>
+      <c r="P117">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16">
+      <c r="A118" t="s">
+        <v>15</v>
+      </c>
+      <c r="B118">
+        <v>100</v>
+      </c>
+      <c r="C118" t="s">
+        <v>18</v>
+      </c>
+      <c r="D118">
+        <v>600</v>
+      </c>
+      <c r="E118">
+        <v>36</v>
+      </c>
+      <c r="F118" t="s">
+        <v>23</v>
+      </c>
+      <c r="G118">
+        <v>0.8</v>
+      </c>
+      <c r="H118" t="s">
+        <v>24</v>
+      </c>
+      <c r="I118">
+        <v>5</v>
+      </c>
+      <c r="J118">
+        <v>5.3409999999999999E-2</v>
+      </c>
+      <c r="K118">
+        <v>0.186055</v>
+      </c>
+      <c r="L118">
+        <v>0.19289300000000001</v>
+      </c>
+      <c r="M118">
+        <v>7.9746189999999997</v>
+      </c>
+      <c r="N118">
+        <v>0.73714199999999996</v>
+      </c>
+      <c r="O118">
+        <v>3.13</v>
+      </c>
+      <c r="P118">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16">
+      <c r="A119" t="s">
+        <v>15</v>
+      </c>
+      <c r="B119">
+        <v>100</v>
+      </c>
+      <c r="C119" t="s">
+        <v>18</v>
+      </c>
+      <c r="D119">
+        <v>600</v>
+      </c>
+      <c r="E119">
+        <v>36</v>
+      </c>
+      <c r="F119" t="s">
+        <v>23</v>
+      </c>
+      <c r="G119">
+        <v>0.8</v>
+      </c>
+      <c r="H119" t="s">
+        <v>24</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>5.9368999999999998E-2</v>
+      </c>
+      <c r="K119">
+        <v>0.154556</v>
+      </c>
+      <c r="L119">
+        <v>0.28426400000000002</v>
+      </c>
+      <c r="M119">
+        <v>6.8680199999999996</v>
+      </c>
+      <c r="N119">
+        <v>0.72293200000000002</v>
+      </c>
+      <c r="O119">
+        <v>3.12</v>
+      </c>
+      <c r="P119">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16">
+      <c r="A120" t="s">
+        <v>15</v>
+      </c>
+      <c r="B120">
+        <v>100</v>
+      </c>
+      <c r="C120" t="s">
+        <v>18</v>
+      </c>
+      <c r="D120">
+        <v>600</v>
+      </c>
+      <c r="E120">
+        <v>36</v>
+      </c>
+      <c r="F120" t="s">
+        <v>23</v>
+      </c>
+      <c r="G120">
+        <v>0.8</v>
+      </c>
+      <c r="H120" t="s">
+        <v>24</v>
+      </c>
+      <c r="I120">
+        <v>3</v>
+      </c>
+      <c r="J120">
+        <v>5.4293000000000001E-2</v>
+      </c>
+      <c r="K120">
+        <v>0.166408</v>
+      </c>
+      <c r="L120">
+        <v>0.23350299999999999</v>
+      </c>
+      <c r="M120">
+        <v>7.558376</v>
+      </c>
+      <c r="N120">
+        <v>0.72838700000000001</v>
+      </c>
+      <c r="O120">
+        <v>3.11</v>
+      </c>
+      <c r="P120">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16">
+      <c r="A121" t="s">
+        <v>15</v>
+      </c>
+      <c r="B121">
+        <v>100</v>
+      </c>
+      <c r="C121" t="s">
+        <v>18</v>
+      </c>
+      <c r="D121">
+        <v>600</v>
+      </c>
+      <c r="E121">
+        <v>36</v>
+      </c>
+      <c r="F121" t="s">
+        <v>23</v>
+      </c>
+      <c r="G121">
+        <v>0.8</v>
+      </c>
+      <c r="H121" t="s">
+        <v>24</v>
+      </c>
+      <c r="I121">
+        <v>5</v>
+      </c>
+      <c r="J121">
+        <v>5.5837999999999999E-2</v>
+      </c>
+      <c r="K121">
+        <v>0.17876500000000001</v>
+      </c>
+      <c r="L121">
+        <v>0.24873100000000001</v>
+      </c>
+      <c r="M121">
+        <v>7.9543150000000002</v>
+      </c>
+      <c r="N121">
+        <v>0.72256699999999996</v>
+      </c>
+      <c r="O121">
+        <v>3.12</v>
+      </c>
+      <c r="P121">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16">
+      <c r="A122" t="s">
+        <v>19</v>
+      </c>
+      <c r="B122">
+        <v>200</v>
+      </c>
+      <c r="C122" t="s">
+        <v>20</v>
+      </c>
+      <c r="D122">
+        <v>600</v>
+      </c>
+      <c r="E122">
+        <v>9</v>
+      </c>
+      <c r="F122" t="s">
+        <v>23</v>
+      </c>
+      <c r="G122">
+        <v>0.2</v>
+      </c>
+      <c r="H122" t="s">
+        <v>24</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>0.39079999999999998</v>
+      </c>
+      <c r="K122">
+        <v>0.39316699999999999</v>
+      </c>
+      <c r="L122">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="M122">
+        <v>1.6819999999999999</v>
+      </c>
+      <c r="N122">
+        <v>0.46041700000000002</v>
+      </c>
+      <c r="O122">
+        <v>36.159999999999997</v>
+      </c>
+      <c r="P122">
+        <v>6.11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16">
+      <c r="A123" t="s">
+        <v>19</v>
+      </c>
+      <c r="B123">
+        <v>200</v>
+      </c>
+      <c r="C123" t="s">
+        <v>20</v>
+      </c>
+      <c r="D123">
+        <v>600</v>
+      </c>
+      <c r="E123">
+        <v>9</v>
+      </c>
+      <c r="F123" t="s">
+        <v>23</v>
+      </c>
+      <c r="G123">
+        <v>0.2</v>
+      </c>
+      <c r="H123" t="s">
+        <v>24</v>
+      </c>
+      <c r="I123">
+        <v>3</v>
+      </c>
+      <c r="J123">
+        <v>0.34920000000000001</v>
+      </c>
+      <c r="K123">
+        <v>0.44616699999999998</v>
+      </c>
+      <c r="L123">
+        <v>0.82</v>
+      </c>
+      <c r="M123">
+        <v>1.8959999999999999</v>
+      </c>
+      <c r="N123">
+        <v>0.45150000000000001</v>
+      </c>
+      <c r="O123">
+        <v>36.33</v>
+      </c>
+      <c r="P123">
+        <v>6.03</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16">
+      <c r="A124" t="s">
+        <v>19</v>
+      </c>
+      <c r="B124">
+        <v>200</v>
+      </c>
+      <c r="C124" t="s">
+        <v>20</v>
+      </c>
+      <c r="D124">
+        <v>600</v>
+      </c>
+      <c r="E124">
+        <v>9</v>
+      </c>
+      <c r="F124" t="s">
+        <v>23</v>
+      </c>
+      <c r="G124">
+        <v>0.2</v>
+      </c>
+      <c r="H124" t="s">
+        <v>24</v>
+      </c>
+      <c r="I124">
+        <v>5</v>
+      </c>
+      <c r="J124">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="K124">
+        <v>0.35549999999999998</v>
+      </c>
+      <c r="L124">
+        <v>0.442</v>
+      </c>
+      <c r="M124">
+        <v>1.526</v>
+      </c>
+      <c r="N124">
+        <v>0.67273300000000003</v>
+      </c>
+      <c r="O124">
+        <v>36.11</v>
+      </c>
+      <c r="P124">
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16">
+      <c r="A125" t="s">
+        <v>19</v>
+      </c>
+      <c r="B125">
+        <v>200</v>
+      </c>
+      <c r="C125" t="s">
+        <v>20</v>
+      </c>
+      <c r="D125">
+        <v>600</v>
+      </c>
+      <c r="E125">
+        <v>9</v>
+      </c>
+      <c r="F125" t="s">
+        <v>23</v>
+      </c>
+      <c r="G125">
+        <v>0.2</v>
+      </c>
+      <c r="H125" t="s">
+        <v>24</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>0.37719999999999998</v>
+      </c>
+      <c r="K125">
+        <v>0.39083299999999999</v>
+      </c>
+      <c r="L125">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="M125">
+        <v>1.6519999999999999</v>
+      </c>
+      <c r="N125">
+        <v>0.47486699999999998</v>
+      </c>
+      <c r="O125">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="P125">
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16">
+      <c r="A126" t="s">
+        <v>19</v>
+      </c>
+      <c r="B126">
+        <v>200</v>
+      </c>
+      <c r="C126" t="s">
+        <v>20</v>
+      </c>
+      <c r="D126">
+        <v>600</v>
+      </c>
+      <c r="E126">
+        <v>9</v>
+      </c>
+      <c r="F126" t="s">
+        <v>23</v>
+      </c>
+      <c r="G126">
+        <v>0.2</v>
+      </c>
+      <c r="H126" t="s">
+        <v>24</v>
+      </c>
+      <c r="I126">
+        <v>3</v>
+      </c>
+      <c r="J126">
+        <v>0.40239999999999998</v>
+      </c>
+      <c r="K126">
+        <v>0.55216699999999996</v>
+      </c>
+      <c r="L126">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="M126">
+        <v>2.29</v>
+      </c>
+      <c r="N126">
+        <v>0.36061700000000002</v>
+      </c>
+      <c r="O126">
+        <v>36.17</v>
+      </c>
+      <c r="P126">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16">
+      <c r="A127" t="s">
+        <v>19</v>
+      </c>
+      <c r="B127">
+        <v>200</v>
+      </c>
+      <c r="C127" t="s">
+        <v>20</v>
+      </c>
+      <c r="D127">
+        <v>600</v>
+      </c>
+      <c r="E127">
+        <v>9</v>
+      </c>
+      <c r="F127" t="s">
+        <v>23</v>
+      </c>
+      <c r="G127">
+        <v>0.2</v>
+      </c>
+      <c r="H127" t="s">
+        <v>24</v>
+      </c>
+      <c r="I127">
+        <v>5</v>
+      </c>
+      <c r="J127">
+        <v>0.3916</v>
+      </c>
+      <c r="K127">
+        <v>0.58983300000000005</v>
+      </c>
+      <c r="L127">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="M127">
+        <v>2.484</v>
+      </c>
+      <c r="N127">
+        <v>0.35836699999999999</v>
+      </c>
+      <c r="O127">
+        <v>37.619999999999997</v>
+      </c>
+      <c r="P127">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16">
+      <c r="A128" t="s">
+        <v>19</v>
+      </c>
+      <c r="B128">
+        <v>200</v>
+      </c>
+      <c r="C128" t="s">
+        <v>20</v>
+      </c>
+      <c r="D128">
+        <v>600</v>
+      </c>
+      <c r="E128">
+        <v>9</v>
+      </c>
+      <c r="F128" t="s">
+        <v>23</v>
+      </c>
+      <c r="G128">
+        <v>0.2</v>
+      </c>
+      <c r="H128" t="s">
+        <v>24</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>0.3392</v>
+      </c>
+      <c r="K128">
+        <v>0.30183300000000002</v>
+      </c>
+      <c r="L128">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="M128">
+        <v>1.3240000000000001</v>
+      </c>
+      <c r="N128">
+        <v>0.54993300000000001</v>
+      </c>
+      <c r="O128">
+        <v>35.369999999999997</v>
+      </c>
+      <c r="P128">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16">
+      <c r="A129" t="s">
+        <v>19</v>
+      </c>
+      <c r="B129">
+        <v>200</v>
+      </c>
+      <c r="C129" t="s">
+        <v>20</v>
+      </c>
+      <c r="D129">
+        <v>600</v>
+      </c>
+      <c r="E129">
+        <v>9</v>
+      </c>
+      <c r="F129" t="s">
+        <v>23</v>
+      </c>
+      <c r="G129">
+        <v>0.2</v>
+      </c>
+      <c r="H129" t="s">
+        <v>24</v>
+      </c>
+      <c r="I129">
+        <v>3</v>
+      </c>
+      <c r="J129">
+        <v>0.3196</v>
+      </c>
+      <c r="K129">
+        <v>0.55483300000000002</v>
+      </c>
+      <c r="L129">
+        <v>0.752</v>
+      </c>
+      <c r="M129">
+        <v>2.3540000000000001</v>
+      </c>
+      <c r="N129">
+        <v>0.44550000000000001</v>
+      </c>
+      <c r="O129">
+        <v>35.619999999999997</v>
+      </c>
+      <c r="P129">
+        <v>6.01</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16">
+      <c r="A130" t="s">
+        <v>19</v>
+      </c>
+      <c r="B130">
+        <v>200</v>
+      </c>
+      <c r="C130" t="s">
+        <v>20</v>
+      </c>
+      <c r="D130">
+        <v>600</v>
+      </c>
+      <c r="E130">
+        <v>9</v>
+      </c>
+      <c r="F130" t="s">
+        <v>23</v>
+      </c>
+      <c r="G130">
+        <v>0.2</v>
+      </c>
+      <c r="H130" t="s">
+        <v>24</v>
+      </c>
+      <c r="I130">
+        <v>5</v>
+      </c>
+      <c r="J130">
+        <v>0.2044</v>
+      </c>
+      <c r="K130">
+        <v>0.32433299999999998</v>
+      </c>
+      <c r="L130">
+        <v>0.46</v>
+      </c>
+      <c r="M130">
+        <v>1.38</v>
+      </c>
+      <c r="N130">
+        <v>0.67211699999999996</v>
+      </c>
+      <c r="O130">
+        <v>35.619999999999997</v>
+      </c>
+      <c r="P130">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16">
+      <c r="A131" t="s">
+        <v>19</v>
+      </c>
+      <c r="B131">
+        <v>200</v>
+      </c>
+      <c r="C131" t="s">
+        <v>20</v>
+      </c>
+      <c r="D131">
+        <v>600</v>
+      </c>
+      <c r="E131">
+        <v>9</v>
+      </c>
+      <c r="F131" t="s">
+        <v>23</v>
+      </c>
+      <c r="G131">
+        <v>0.4</v>
+      </c>
+      <c r="H131" t="s">
+        <v>24</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>0.40079999999999999</v>
+      </c>
+      <c r="K131">
+        <v>0.44016699999999997</v>
+      </c>
+      <c r="L131">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="M131">
+        <v>1.8440000000000001</v>
+      </c>
+      <c r="N131">
+        <v>0.43496699999999999</v>
+      </c>
+      <c r="O131">
+        <v>38.11</v>
+      </c>
+      <c r="P131">
+        <v>12.42</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16">
+      <c r="A132" t="s">
+        <v>19</v>
+      </c>
+      <c r="B132">
+        <v>200</v>
+      </c>
+      <c r="C132" t="s">
+        <v>20</v>
+      </c>
+      <c r="D132">
+        <v>600</v>
+      </c>
+      <c r="E132">
+        <v>9</v>
+      </c>
+      <c r="F132" t="s">
+        <v>23</v>
+      </c>
+      <c r="G132">
+        <v>0.4</v>
+      </c>
+      <c r="H132" t="s">
+        <v>24</v>
+      </c>
+      <c r="I132">
+        <v>3</v>
+      </c>
+      <c r="J132">
+        <v>0.3896</v>
+      </c>
+      <c r="K132">
+        <v>0.45050000000000001</v>
+      </c>
+      <c r="L132">
+        <v>0.92</v>
+      </c>
+      <c r="M132">
+        <v>1.93</v>
+      </c>
+      <c r="N132">
+        <v>0.44216699999999998</v>
+      </c>
+      <c r="O132">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="P132">
+        <v>12.58</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16">
+      <c r="A133" t="s">
+        <v>19</v>
+      </c>
+      <c r="B133">
+        <v>200</v>
+      </c>
+      <c r="C133" t="s">
+        <v>20</v>
+      </c>
+      <c r="D133">
+        <v>600</v>
+      </c>
+      <c r="E133">
+        <v>9</v>
+      </c>
+      <c r="F133" t="s">
+        <v>23</v>
+      </c>
+      <c r="G133">
+        <v>0.4</v>
+      </c>
+      <c r="H133" t="s">
+        <v>24</v>
+      </c>
+      <c r="I133">
+        <v>5</v>
+      </c>
+      <c r="J133">
+        <v>0.40479999999999999</v>
+      </c>
+      <c r="K133">
+        <v>0.76216700000000004</v>
+      </c>
+      <c r="L133">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="M133">
+        <v>3.1120000000000001</v>
+      </c>
+      <c r="N133">
+        <v>0.31161699999999998</v>
+      </c>
+      <c r="O133">
+        <v>38.67</v>
+      </c>
+      <c r="P133">
+        <v>12.42</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16">
+      <c r="A134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B134">
+        <v>200</v>
+      </c>
+      <c r="C134" t="s">
+        <v>20</v>
+      </c>
+      <c r="D134">
+        <v>600</v>
+      </c>
+      <c r="E134">
+        <v>9</v>
+      </c>
+      <c r="F134" t="s">
+        <v>23</v>
+      </c>
+      <c r="G134">
+        <v>0.4</v>
+      </c>
+      <c r="H134" t="s">
+        <v>24</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <v>0.34839999999999999</v>
+      </c>
+      <c r="K134">
+        <v>0.70283300000000004</v>
+      </c>
+      <c r="L134">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="M134">
+        <v>2.91</v>
+      </c>
+      <c r="N134">
+        <v>0.38376700000000002</v>
+      </c>
+      <c r="O134">
+        <v>38.450000000000003</v>
+      </c>
+      <c r="P134">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16">
+      <c r="A135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B135">
+        <v>200</v>
+      </c>
+      <c r="C135" t="s">
+        <v>20</v>
+      </c>
+      <c r="D135">
+        <v>600</v>
+      </c>
+      <c r="E135">
+        <v>9</v>
+      </c>
+      <c r="F135" t="s">
+        <v>23</v>
+      </c>
+      <c r="G135">
+        <v>0.4</v>
+      </c>
+      <c r="H135" t="s">
+        <v>24</v>
+      </c>
+      <c r="I135">
+        <v>3</v>
+      </c>
+      <c r="J135">
+        <v>0.34639999999999999</v>
+      </c>
+      <c r="K135">
+        <v>0.438</v>
+      </c>
+      <c r="L135">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="M135">
+        <v>1.87</v>
+      </c>
+      <c r="N135">
+        <v>0.45683299999999999</v>
+      </c>
+      <c r="O135">
+        <v>38.75</v>
+      </c>
+      <c r="P135">
+        <v>12.31</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16">
+      <c r="A136" t="s">
+        <v>19</v>
+      </c>
+      <c r="B136">
+        <v>200</v>
+      </c>
+      <c r="C136" t="s">
+        <v>20</v>
+      </c>
+      <c r="D136">
+        <v>600</v>
+      </c>
+      <c r="E136">
+        <v>9</v>
+      </c>
+      <c r="F136" t="s">
+        <v>23</v>
+      </c>
+      <c r="G136">
+        <v>0.4</v>
+      </c>
+      <c r="H136" t="s">
+        <v>24</v>
+      </c>
+      <c r="I136">
+        <v>5</v>
+      </c>
+      <c r="J136">
+        <v>0.2044</v>
+      </c>
+      <c r="K136">
+        <v>0.23716699999999999</v>
+      </c>
+      <c r="L136">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="M136">
+        <v>1.0620000000000001</v>
+      </c>
+      <c r="N136">
+        <v>0.71514999999999995</v>
+      </c>
+      <c r="O136">
+        <v>38.69</v>
+      </c>
+      <c r="P136">
+        <v>12.53</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16">
+      <c r="A137" t="s">
+        <v>19</v>
+      </c>
+      <c r="B137">
+        <v>200</v>
+      </c>
+      <c r="C137" t="s">
+        <v>20</v>
+      </c>
+      <c r="D137">
+        <v>600</v>
+      </c>
+      <c r="E137">
+        <v>9</v>
+      </c>
+      <c r="F137" t="s">
+        <v>23</v>
+      </c>
+      <c r="G137">
+        <v>0.4</v>
+      </c>
+      <c r="H137" t="s">
+        <v>24</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <v>0.35</v>
+      </c>
+      <c r="K137">
+        <v>0.58066700000000004</v>
+      </c>
+      <c r="L137">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="M137">
+        <v>2.452</v>
+      </c>
+      <c r="N137">
+        <v>0.40238299999999999</v>
+      </c>
+      <c r="O137">
+        <v>38.75</v>
+      </c>
+      <c r="P137">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16">
+      <c r="A138" t="s">
+        <v>19</v>
+      </c>
+      <c r="B138">
+        <v>200</v>
+      </c>
+      <c r="C138" t="s">
+        <v>20</v>
+      </c>
+      <c r="D138">
+        <v>600</v>
+      </c>
+      <c r="E138">
+        <v>9</v>
+      </c>
+      <c r="F138" t="s">
+        <v>23</v>
+      </c>
+      <c r="G138">
+        <v>0.4</v>
+      </c>
+      <c r="H138" t="s">
+        <v>24</v>
+      </c>
+      <c r="I138">
+        <v>3</v>
+      </c>
+      <c r="J138">
+        <v>0.2036</v>
+      </c>
+      <c r="K138">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="L138">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="M138">
+        <v>1.462</v>
+      </c>
+      <c r="N138">
+        <v>0.66949999999999998</v>
+      </c>
+      <c r="O138">
+        <v>38.840000000000003</v>
+      </c>
+      <c r="P138">
+        <v>12.62</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16">
+      <c r="A139" t="s">
+        <v>19</v>
+      </c>
+      <c r="B139">
+        <v>200</v>
+      </c>
+      <c r="C139" t="s">
+        <v>20</v>
+      </c>
+      <c r="D139">
+        <v>600</v>
+      </c>
+      <c r="E139">
+        <v>9</v>
+      </c>
+      <c r="F139" t="s">
+        <v>23</v>
+      </c>
+      <c r="G139">
+        <v>0.4</v>
+      </c>
+      <c r="H139" t="s">
+        <v>24</v>
+      </c>
+      <c r="I139">
+        <v>5</v>
+      </c>
+      <c r="J139">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="K139">
+        <v>0.47716700000000001</v>
+      </c>
+      <c r="L139">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="M139">
+        <v>2.0259999999999998</v>
+      </c>
+      <c r="N139">
+        <v>0.43733300000000003</v>
+      </c>
+      <c r="O139">
+        <v>38.79</v>
+      </c>
+      <c r="P139">
+        <v>12.32</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16">
+      <c r="A140" t="s">
+        <v>19</v>
+      </c>
+      <c r="B140">
+        <v>200</v>
+      </c>
+      <c r="C140" t="s">
+        <v>20</v>
+      </c>
+      <c r="D140">
+        <v>600</v>
+      </c>
+      <c r="E140">
+        <v>9</v>
+      </c>
+      <c r="F140" t="s">
+        <v>23</v>
+      </c>
+      <c r="G140">
+        <v>0.6</v>
+      </c>
+      <c r="H140" t="s">
+        <v>24</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <v>0.38640000000000002</v>
+      </c>
+      <c r="K140">
+        <v>0.42616700000000002</v>
+      </c>
+      <c r="L140">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="M140">
+        <v>1.8160000000000001</v>
+      </c>
+      <c r="N140">
+        <v>0.448633</v>
+      </c>
+      <c r="O140">
+        <v>42.78</v>
+      </c>
+      <c r="P140">
+        <v>19.13</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16">
+      <c r="A141" t="s">
+        <v>19</v>
+      </c>
+      <c r="B141">
+        <v>200</v>
+      </c>
+      <c r="C141" t="s">
+        <v>20</v>
+      </c>
+      <c r="D141">
+        <v>600</v>
+      </c>
+      <c r="E141">
+        <v>9</v>
+      </c>
+      <c r="F141" t="s">
+        <v>23</v>
+      </c>
+      <c r="G141">
+        <v>0.6</v>
+      </c>
+      <c r="H141" t="s">
+        <v>24</v>
+      </c>
+      <c r="I141">
+        <v>3</v>
+      </c>
+      <c r="J141">
+        <v>0.39879999999999999</v>
+      </c>
+      <c r="K141">
+        <v>0.78549999999999998</v>
+      </c>
+      <c r="L141">
+        <v>0.95</v>
+      </c>
+      <c r="M141">
+        <v>3.226</v>
+      </c>
+      <c r="N141">
+        <v>0.29965000000000003</v>
+      </c>
+      <c r="O141">
+        <v>42.39</v>
+      </c>
+      <c r="P141">
+        <v>19.440000000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16">
+      <c r="A142" t="s">
+        <v>19</v>
+      </c>
+      <c r="B142">
+        <v>200</v>
+      </c>
+      <c r="C142" t="s">
+        <v>20</v>
+      </c>
+      <c r="D142">
+        <v>600</v>
+      </c>
+      <c r="E142">
+        <v>9</v>
+      </c>
+      <c r="F142" t="s">
+        <v>23</v>
+      </c>
+      <c r="G142">
+        <v>0.6</v>
+      </c>
+      <c r="H142" t="s">
+        <v>24</v>
+      </c>
+      <c r="I142">
+        <v>5</v>
+      </c>
+      <c r="J142">
+        <v>0.20280000000000001</v>
+      </c>
+      <c r="K142">
+        <v>0.26116699999999998</v>
+      </c>
+      <c r="L142">
+        <v>0.45</v>
+      </c>
+      <c r="M142">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="N142">
+        <v>0.70883300000000005</v>
+      </c>
+      <c r="O142">
+        <v>42.65</v>
+      </c>
+      <c r="P142">
+        <v>19.14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16">
+      <c r="A143" t="s">
+        <v>19</v>
+      </c>
+      <c r="B143">
+        <v>200</v>
+      </c>
+      <c r="C143" t="s">
+        <v>20</v>
+      </c>
+      <c r="D143">
+        <v>600</v>
+      </c>
+      <c r="E143">
+        <v>9</v>
+      </c>
+      <c r="F143" t="s">
+        <v>23</v>
+      </c>
+      <c r="G143">
+        <v>0.6</v>
+      </c>
+      <c r="H143" t="s">
+        <v>24</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <v>0.38640000000000002</v>
+      </c>
+      <c r="K143">
+        <v>0.77933300000000005</v>
+      </c>
+      <c r="L143">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="M143">
+        <v>3.2</v>
+      </c>
+      <c r="N143">
+        <v>0.30745</v>
+      </c>
+      <c r="O143">
+        <v>42.49</v>
+      </c>
+      <c r="P143">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16">
+      <c r="A144" t="s">
+        <v>19</v>
+      </c>
+      <c r="B144">
+        <v>200</v>
+      </c>
+      <c r="C144" t="s">
+        <v>20</v>
+      </c>
+      <c r="D144">
+        <v>600</v>
+      </c>
+      <c r="E144">
+        <v>9</v>
+      </c>
+      <c r="F144" t="s">
+        <v>23</v>
+      </c>
+      <c r="G144">
+        <v>0.6</v>
+      </c>
+      <c r="H144" t="s">
+        <v>24</v>
+      </c>
+      <c r="I144">
+        <v>3</v>
+      </c>
+      <c r="J144">
+        <v>0.37080000000000002</v>
+      </c>
+      <c r="K144">
+        <v>0.77833300000000005</v>
+      </c>
+      <c r="L144">
+        <v>0.87</v>
+      </c>
+      <c r="M144">
+        <v>3.222</v>
+      </c>
+      <c r="N144">
+        <v>0.32795000000000002</v>
+      </c>
+      <c r="O144">
+        <v>43.45</v>
+      </c>
+      <c r="P144">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16">
+      <c r="A145" t="s">
+        <v>19</v>
+      </c>
+      <c r="B145">
+        <v>200</v>
+      </c>
+      <c r="C145" t="s">
+        <v>20</v>
+      </c>
+      <c r="D145">
+        <v>600</v>
+      </c>
+      <c r="E145">
+        <v>9</v>
+      </c>
+      <c r="F145" t="s">
+        <v>23</v>
+      </c>
+      <c r="G145">
+        <v>0.6</v>
+      </c>
+      <c r="H145" t="s">
+        <v>24</v>
+      </c>
+      <c r="I145">
+        <v>5</v>
+      </c>
+      <c r="J145">
+        <v>0.20319999999999999</v>
+      </c>
+      <c r="K145">
+        <v>0.32566699999999998</v>
+      </c>
+      <c r="L145">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="M145">
+        <v>1.43</v>
+      </c>
+      <c r="N145">
+        <v>0.67364999999999997</v>
+      </c>
+      <c r="O145">
+        <v>42.18</v>
+      </c>
+      <c r="P145">
+        <v>19.07</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16">
+      <c r="A146" t="s">
+        <v>19</v>
+      </c>
+      <c r="B146">
+        <v>200</v>
+      </c>
+      <c r="C146" t="s">
+        <v>20</v>
+      </c>
+      <c r="D146">
+        <v>600</v>
+      </c>
+      <c r="E146">
+        <v>9</v>
+      </c>
+      <c r="F146" t="s">
+        <v>23</v>
+      </c>
+      <c r="G146">
+        <v>0.6</v>
+      </c>
+      <c r="H146" t="s">
+        <v>24</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>0.40439999999999998</v>
+      </c>
+      <c r="K146">
+        <v>0.42366700000000002</v>
+      </c>
+      <c r="L146">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="M146">
+        <v>1.776</v>
+      </c>
+      <c r="N146">
+        <v>0.44071700000000003</v>
+      </c>
+      <c r="O146">
+        <v>42.92</v>
+      </c>
+      <c r="P146">
+        <v>19.010000000000002</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16">
+      <c r="A147" t="s">
+        <v>19</v>
+      </c>
+      <c r="B147">
+        <v>200</v>
+      </c>
+      <c r="C147" t="s">
+        <v>20</v>
+      </c>
+      <c r="D147">
+        <v>600</v>
+      </c>
+      <c r="E147">
+        <v>9</v>
+      </c>
+      <c r="F147" t="s">
+        <v>23</v>
+      </c>
+      <c r="G147">
+        <v>0.6</v>
+      </c>
+      <c r="H147" t="s">
+        <v>24</v>
+      </c>
+      <c r="I147">
+        <v>3</v>
+      </c>
+      <c r="J147">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="K147">
+        <v>0.464667</v>
+      </c>
+      <c r="L147">
+        <v>0.95</v>
+      </c>
+      <c r="M147">
+        <v>1.9419999999999999</v>
+      </c>
+      <c r="N147">
+        <v>0.42913299999999999</v>
+      </c>
+      <c r="O147">
+        <v>42.39</v>
+      </c>
+      <c r="P147">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16">
+      <c r="A148" t="s">
+        <v>19</v>
+      </c>
+      <c r="B148">
+        <v>200</v>
+      </c>
+      <c r="C148" t="s">
+        <v>20</v>
+      </c>
+      <c r="D148">
+        <v>600</v>
+      </c>
+      <c r="E148">
+        <v>9</v>
+      </c>
+      <c r="F148" t="s">
+        <v>23</v>
+      </c>
+      <c r="G148">
+        <v>0.6</v>
+      </c>
+      <c r="H148" t="s">
+        <v>24</v>
+      </c>
+      <c r="I148">
+        <v>5</v>
+      </c>
+      <c r="J148">
+        <v>0.39</v>
+      </c>
+      <c r="K148">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="L148">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="M148">
+        <v>2.532</v>
+      </c>
+      <c r="N148">
+        <v>0.35225000000000001</v>
+      </c>
+      <c r="O148">
+        <v>42.48</v>
+      </c>
+      <c r="P148">
+        <v>19.489999999999998</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16">
+      <c r="A149" t="s">
+        <v>19</v>
+      </c>
+      <c r="B149">
+        <v>200</v>
+      </c>
+      <c r="C149" t="s">
+        <v>20</v>
+      </c>
+      <c r="D149">
+        <v>600</v>
+      </c>
+      <c r="E149">
+        <v>9</v>
+      </c>
+      <c r="F149" t="s">
+        <v>23</v>
+      </c>
+      <c r="G149">
+        <v>0.8</v>
+      </c>
+      <c r="H149" t="s">
+        <v>24</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>0.34560000000000002</v>
+      </c>
+      <c r="K149">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="L149">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="M149">
+        <v>2.444</v>
+      </c>
+      <c r="N149">
+        <v>0.40955000000000003</v>
+      </c>
+      <c r="O149">
+        <v>47.79</v>
+      </c>
+      <c r="P149">
+        <v>26.76</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16">
+      <c r="A150" t="s">
+        <v>19</v>
+      </c>
+      <c r="B150">
+        <v>200</v>
+      </c>
+      <c r="C150" t="s">
+        <v>20</v>
+      </c>
+      <c r="D150">
+        <v>600</v>
+      </c>
+      <c r="E150">
+        <v>9</v>
+      </c>
+      <c r="F150" t="s">
+        <v>23</v>
+      </c>
+      <c r="G150">
+        <v>0.8</v>
+      </c>
+      <c r="H150" t="s">
+        <v>24</v>
+      </c>
+      <c r="I150">
+        <v>3</v>
+      </c>
+      <c r="J150">
+        <v>0.39</v>
+      </c>
+      <c r="K150">
+        <v>0.54383300000000001</v>
+      </c>
+      <c r="L150">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="M150">
+        <v>2.286</v>
+      </c>
+      <c r="N150">
+        <v>0.37190000000000001</v>
+      </c>
+      <c r="O150">
+        <v>46.06</v>
+      </c>
+      <c r="P150">
+        <v>25.64</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16">
+      <c r="A151" t="s">
+        <v>19</v>
+      </c>
+      <c r="B151">
+        <v>200</v>
+      </c>
+      <c r="C151" t="s">
+        <v>20</v>
+      </c>
+      <c r="D151">
+        <v>600</v>
+      </c>
+      <c r="E151">
+        <v>9</v>
+      </c>
+      <c r="F151" t="s">
+        <v>23</v>
+      </c>
+      <c r="G151">
+        <v>0.8</v>
+      </c>
+      <c r="H151" t="s">
+        <v>24</v>
+      </c>
+      <c r="I151">
+        <v>5</v>
+      </c>
+      <c r="J151">
+        <v>0.38640000000000002</v>
+      </c>
+      <c r="K151">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="L151">
+        <v>0.91</v>
+      </c>
+      <c r="M151">
+        <v>3.0019999999999998</v>
+      </c>
+      <c r="N151">
+        <v>0.318467</v>
+      </c>
+      <c r="O151">
+        <v>46.36</v>
+      </c>
+      <c r="P151">
+        <v>25.64</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16">
+      <c r="A152" t="s">
+        <v>19</v>
+      </c>
+      <c r="B152">
+        <v>200</v>
+      </c>
+      <c r="C152" t="s">
+        <v>20</v>
+      </c>
+      <c r="D152">
+        <v>600</v>
+      </c>
+      <c r="E152">
+        <v>9</v>
+      </c>
+      <c r="F152" t="s">
+        <v>23</v>
+      </c>
+      <c r="G152">
+        <v>0.8</v>
+      </c>
+      <c r="H152" t="s">
+        <v>24</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <v>0.34960000000000002</v>
+      </c>
+      <c r="K152">
+        <v>0.36733300000000002</v>
+      </c>
+      <c r="L152">
+        <v>0.82</v>
+      </c>
+      <c r="M152">
+        <v>1.5860000000000001</v>
+      </c>
+      <c r="N152">
+        <v>0.51231700000000002</v>
+      </c>
+      <c r="O152">
+        <v>46.61</v>
+      </c>
+      <c r="P152">
+        <v>25.93</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16">
+      <c r="A153" t="s">
+        <v>19</v>
+      </c>
+      <c r="B153">
+        <v>200</v>
+      </c>
+      <c r="C153" t="s">
+        <v>20</v>
+      </c>
+      <c r="D153">
+        <v>600</v>
+      </c>
+      <c r="E153">
+        <v>9</v>
+      </c>
+      <c r="F153" t="s">
+        <v>23</v>
+      </c>
+      <c r="G153">
+        <v>0.8</v>
+      </c>
+      <c r="H153" t="s">
+        <v>24</v>
+      </c>
+      <c r="I153">
+        <v>3</v>
+      </c>
+      <c r="J153">
+        <v>0.2036</v>
+      </c>
+      <c r="K153">
+        <v>0.33416699999999999</v>
+      </c>
+      <c r="L153">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="M153">
+        <v>1.444</v>
+      </c>
+      <c r="N153">
+        <v>0.66518299999999997</v>
+      </c>
+      <c r="O153">
+        <v>46.27</v>
+      </c>
+      <c r="P153">
+        <v>25.61</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16">
+      <c r="A154" t="s">
+        <v>19</v>
+      </c>
+      <c r="B154">
+        <v>200</v>
+      </c>
+      <c r="C154" t="s">
+        <v>20</v>
+      </c>
+      <c r="D154">
+        <v>600</v>
+      </c>
+      <c r="E154">
+        <v>9</v>
+      </c>
+      <c r="F154" t="s">
+        <v>23</v>
+      </c>
+      <c r="G154">
+        <v>0.8</v>
+      </c>
+      <c r="H154" t="s">
+        <v>24</v>
+      </c>
+      <c r="I154">
+        <v>5</v>
+      </c>
+      <c r="J154">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="K154">
+        <v>0.29733300000000001</v>
+      </c>
+      <c r="L154">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="M154">
+        <v>1.284</v>
+      </c>
+      <c r="N154">
+        <v>0.68638299999999997</v>
+      </c>
+      <c r="O154">
+        <v>46.37</v>
+      </c>
+      <c r="P154">
+        <v>25.41</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16">
+      <c r="A155" t="s">
+        <v>19</v>
+      </c>
+      <c r="B155">
+        <v>200</v>
+      </c>
+      <c r="C155" t="s">
+        <v>20</v>
+      </c>
+      <c r="D155">
+        <v>600</v>
+      </c>
+      <c r="E155">
+        <v>9</v>
+      </c>
+      <c r="F155" t="s">
+        <v>23</v>
+      </c>
+      <c r="G155">
+        <v>0.8</v>
+      </c>
+      <c r="H155" t="s">
+        <v>24</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <v>0.39</v>
+      </c>
+      <c r="K155">
+        <v>0.43866699999999997</v>
+      </c>
+      <c r="L155">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="M155">
+        <v>1.8520000000000001</v>
+      </c>
+      <c r="N155">
+        <v>0.44626700000000002</v>
+      </c>
+      <c r="O155">
+        <v>46.51</v>
+      </c>
+      <c r="P155">
+        <v>25.54</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16">
+      <c r="A156" t="s">
+        <v>19</v>
+      </c>
+      <c r="B156">
+        <v>200</v>
+      </c>
+      <c r="C156" t="s">
+        <v>20</v>
+      </c>
+      <c r="D156">
+        <v>600</v>
+      </c>
+      <c r="E156">
+        <v>9</v>
+      </c>
+      <c r="F156" t="s">
+        <v>23</v>
+      </c>
+      <c r="G156">
+        <v>0.8</v>
+      </c>
+      <c r="H156" t="s">
+        <v>24</v>
+      </c>
+      <c r="I156">
+        <v>3</v>
+      </c>
+      <c r="J156">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="K156">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="L156">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="M156">
+        <v>2.9220000000000002</v>
+      </c>
+      <c r="N156">
+        <v>0.38865</v>
+      </c>
+      <c r="O156">
+        <v>46.26</v>
+      </c>
+      <c r="P156">
+        <v>25.36</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16">
+      <c r="A157" t="s">
+        <v>19</v>
+      </c>
+      <c r="B157">
+        <v>200</v>
+      </c>
+      <c r="C157" t="s">
+        <v>20</v>
+      </c>
+      <c r="D157">
+        <v>600</v>
+      </c>
+      <c r="E157">
+        <v>9</v>
+      </c>
+      <c r="F157" t="s">
+        <v>23</v>
+      </c>
+      <c r="G157">
+        <v>0.8</v>
+      </c>
+      <c r="H157" t="s">
+        <v>24</v>
+      </c>
+      <c r="I157">
+        <v>5</v>
+      </c>
+      <c r="J157">
+        <v>0.40279999999999999</v>
+      </c>
+      <c r="K157">
+        <v>0.56566700000000003</v>
+      </c>
+      <c r="L157">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="M157">
+        <v>2.35</v>
+      </c>
+      <c r="N157">
+        <v>0.35921700000000001</v>
+      </c>
+      <c r="O157">
+        <v>46.32</v>
+      </c>
+      <c r="P157">
+        <v>25.46</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16">
+      <c r="A158" t="s">
+        <v>19</v>
+      </c>
+      <c r="B158">
+        <v>300</v>
+      </c>
+      <c r="C158" t="s">
+        <v>21</v>
+      </c>
+      <c r="D158">
+        <v>600</v>
+      </c>
+      <c r="E158">
+        <v>5</v>
+      </c>
+      <c r="F158" t="s">
+        <v>23</v>
+      </c>
+      <c r="G158">
+        <v>0.2</v>
+      </c>
+      <c r="H158" t="s">
+        <v>24</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158">
+        <v>0.39560000000000001</v>
+      </c>
+      <c r="K158">
+        <v>0.409333</v>
+      </c>
+      <c r="L158">
+        <v>0.94</v>
+      </c>
+      <c r="M158">
+        <v>1.694</v>
+      </c>
+      <c r="N158">
+        <v>0.465617</v>
+      </c>
+      <c r="O158">
+        <v>35.33</v>
+      </c>
+      <c r="P158">
+        <v>6.17</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16">
+      <c r="A159" t="s">
+        <v>19</v>
+      </c>
+      <c r="B159">
+        <v>300</v>
+      </c>
+      <c r="C159" t="s">
+        <v>21</v>
+      </c>
+      <c r="D159">
+        <v>600</v>
+      </c>
+      <c r="E159">
+        <v>5</v>
+      </c>
+      <c r="F159" t="s">
+        <v>23</v>
+      </c>
+      <c r="G159">
+        <v>0.2</v>
+      </c>
+      <c r="H159" t="s">
+        <v>24</v>
+      </c>
+      <c r="I159">
+        <v>3</v>
+      </c>
+      <c r="J159">
+        <v>0.38040000000000002</v>
+      </c>
+      <c r="K159">
+        <v>0.629</v>
+      </c>
+      <c r="L159">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="M159">
+        <v>2.5920000000000001</v>
+      </c>
+      <c r="N159">
+        <v>0.35418300000000003</v>
+      </c>
+      <c r="O159">
+        <v>35.74</v>
+      </c>
+      <c r="P159">
+        <v>5.96</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16">
+      <c r="A160" t="s">
+        <v>19</v>
+      </c>
+      <c r="B160">
+        <v>300</v>
+      </c>
+      <c r="C160" t="s">
+        <v>21</v>
+      </c>
+      <c r="D160">
+        <v>600</v>
+      </c>
+      <c r="E160">
+        <v>5</v>
+      </c>
+      <c r="F160" t="s">
+        <v>23</v>
+      </c>
+      <c r="G160">
+        <v>0.2</v>
+      </c>
+      <c r="H160" t="s">
+        <v>24</v>
+      </c>
+      <c r="I160">
+        <v>5</v>
+      </c>
+      <c r="J160">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="K160">
+        <v>0.66116699999999995</v>
+      </c>
+      <c r="L160">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="M160">
+        <v>2.786</v>
+      </c>
+      <c r="N160">
+        <v>0.34039999999999998</v>
+      </c>
+      <c r="O160">
+        <v>35.81</v>
+      </c>
+      <c r="P160">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16">
+      <c r="A161" t="s">
+        <v>19</v>
+      </c>
+      <c r="B161">
+        <v>300</v>
+      </c>
+      <c r="C161" t="s">
+        <v>21</v>
+      </c>
+      <c r="D161">
+        <v>600</v>
+      </c>
+      <c r="E161">
+        <v>5</v>
+      </c>
+      <c r="F161" t="s">
+        <v>23</v>
+      </c>
+      <c r="G161">
+        <v>0.2</v>
+      </c>
+      <c r="H161" t="s">
+        <v>24</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <v>0.39560000000000001</v>
+      </c>
+      <c r="K161">
+        <v>0.65133300000000005</v>
+      </c>
+      <c r="L161">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="M161">
+        <v>2.6840000000000002</v>
+      </c>
+      <c r="N161">
+        <v>0.32769999999999999</v>
+      </c>
+      <c r="O161">
+        <v>35.630000000000003</v>
+      </c>
+      <c r="P161">
+        <v>6.09</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16">
+      <c r="A162" t="s">
+        <v>19</v>
+      </c>
+      <c r="B162">
+        <v>300</v>
+      </c>
+      <c r="C162" t="s">
+        <v>21</v>
+      </c>
+      <c r="D162">
+        <v>600</v>
+      </c>
+      <c r="E162">
+        <v>5</v>
+      </c>
+      <c r="F162" t="s">
+        <v>23</v>
+      </c>
+      <c r="G162">
+        <v>0.2</v>
+      </c>
+      <c r="H162" t="s">
+        <v>24</v>
+      </c>
+      <c r="I162">
+        <v>3</v>
+      </c>
+      <c r="J162">
+        <v>0.34279999999999999</v>
+      </c>
+      <c r="K162">
+        <v>0.32883299999999999</v>
+      </c>
+      <c r="L162">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="M162">
+        <v>1.46</v>
+      </c>
+      <c r="N162">
+        <v>0.53706699999999996</v>
+      </c>
+      <c r="O162">
+        <v>35.31</v>
+      </c>
+      <c r="P162">
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16">
+      <c r="A163" t="s">
+        <v>19</v>
+      </c>
+      <c r="B163">
+        <v>300</v>
+      </c>
+      <c r="C163" t="s">
+        <v>21</v>
+      </c>
+      <c r="D163">
+        <v>600</v>
+      </c>
+      <c r="E163">
+        <v>5</v>
+      </c>
+      <c r="F163" t="s">
+        <v>23</v>
+      </c>
+      <c r="G163">
+        <v>0.2</v>
+      </c>
+      <c r="H163" t="s">
+        <v>24</v>
+      </c>
+      <c r="I163">
+        <v>5</v>
+      </c>
+      <c r="J163">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="K163">
+        <v>0.68483300000000003</v>
+      </c>
+      <c r="L163">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="M163">
+        <v>2.8780000000000001</v>
+      </c>
+      <c r="N163">
+        <v>0.33546700000000002</v>
+      </c>
+      <c r="O163">
+        <v>35.51</v>
+      </c>
+      <c r="P163">
+        <v>6.22</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16">
+      <c r="A164" t="s">
+        <v>19</v>
+      </c>
+      <c r="B164">
+        <v>300</v>
+      </c>
+      <c r="C164" t="s">
+        <v>21</v>
+      </c>
+      <c r="D164">
+        <v>600</v>
+      </c>
+      <c r="E164">
+        <v>5</v>
+      </c>
+      <c r="F164" t="s">
+        <v>23</v>
+      </c>
+      <c r="G164">
+        <v>0.2</v>
+      </c>
+      <c r="H164" t="s">
+        <v>24</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164">
+        <v>0.34360000000000002</v>
+      </c>
+      <c r="K164">
+        <v>0.69950000000000001</v>
+      </c>
+      <c r="L164">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="M164">
+        <v>2.89</v>
+      </c>
+      <c r="N164">
+        <v>0.39395000000000002</v>
+      </c>
+      <c r="O164">
+        <v>35.56</v>
+      </c>
+      <c r="P164">
+        <v>6.18</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16">
+      <c r="A165" t="s">
+        <v>19</v>
+      </c>
+      <c r="B165">
+        <v>300</v>
+      </c>
+      <c r="C165" t="s">
+        <v>21</v>
+      </c>
+      <c r="D165">
+        <v>600</v>
+      </c>
+      <c r="E165">
+        <v>5</v>
+      </c>
+      <c r="F165" t="s">
+        <v>23</v>
+      </c>
+      <c r="G165">
+        <v>0.2</v>
+      </c>
+      <c r="H165" t="s">
+        <v>24</v>
+      </c>
+      <c r="I165">
+        <v>3</v>
+      </c>
+      <c r="J165">
+        <v>0.39479999999999998</v>
+      </c>
+      <c r="K165">
+        <v>0.74216700000000002</v>
+      </c>
+      <c r="L165">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="M165">
+        <v>3.052</v>
+      </c>
+      <c r="N165">
+        <v>0.323633</v>
+      </c>
+      <c r="O165">
+        <v>34.78</v>
+      </c>
+      <c r="P165">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16">
+      <c r="A166" t="s">
+        <v>19</v>
+      </c>
+      <c r="B166">
+        <v>300</v>
+      </c>
+      <c r="C166" t="s">
+        <v>21</v>
+      </c>
+      <c r="D166">
+        <v>600</v>
+      </c>
+      <c r="E166">
+        <v>5</v>
+      </c>
+      <c r="F166" t="s">
+        <v>23</v>
+      </c>
+      <c r="G166">
+        <v>0.2</v>
+      </c>
+      <c r="H166" t="s">
+        <v>24</v>
+      </c>
+      <c r="I166">
+        <v>5</v>
+      </c>
+      <c r="J166">
+        <v>0.39439999999999997</v>
+      </c>
+      <c r="K166">
+        <v>0.51083299999999998</v>
+      </c>
+      <c r="L166">
+        <v>0.94</v>
+      </c>
+      <c r="M166">
+        <v>2.1240000000000001</v>
+      </c>
+      <c r="N166">
+        <v>0.38048300000000002</v>
+      </c>
+      <c r="O166">
+        <v>34.51</v>
+      </c>
+      <c r="P166">
+        <v>5.84</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16">
+      <c r="A167" t="s">
+        <v>19</v>
+      </c>
+      <c r="B167">
+        <v>300</v>
+      </c>
+      <c r="C167" t="s">
+        <v>21</v>
+      </c>
+      <c r="D167">
+        <v>600</v>
+      </c>
+      <c r="E167">
+        <v>5</v>
+      </c>
+      <c r="F167" t="s">
+        <v>23</v>
+      </c>
+      <c r="G167">
+        <v>0.4</v>
+      </c>
+      <c r="H167" t="s">
+        <v>24</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="J167">
+        <v>0.37880000000000003</v>
+      </c>
+      <c r="K167">
+        <v>0.70866700000000005</v>
+      </c>
+      <c r="L167">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="M167">
+        <v>2.952</v>
+      </c>
+      <c r="N167">
+        <v>0.32081700000000002</v>
+      </c>
+      <c r="O167">
+        <v>36.69</v>
+      </c>
+      <c r="P167">
+        <v>11.86</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16">
+      <c r="A168" t="s">
+        <v>19</v>
+      </c>
+      <c r="B168">
+        <v>300</v>
+      </c>
+      <c r="C168" t="s">
+        <v>21</v>
+      </c>
+      <c r="D168">
+        <v>600</v>
+      </c>
+      <c r="E168">
+        <v>5</v>
+      </c>
+      <c r="F168" t="s">
+        <v>23</v>
+      </c>
+      <c r="G168">
+        <v>0.4</v>
+      </c>
+      <c r="H168" t="s">
+        <v>24</v>
+      </c>
+      <c r="I168">
+        <v>3</v>
+      </c>
+      <c r="J168">
+        <v>0.15640000000000001</v>
+      </c>
+      <c r="K168">
+        <v>0.29349999999999998</v>
+      </c>
+      <c r="L168">
+        <v>0.34</v>
+      </c>
+      <c r="M168">
+        <v>1.284</v>
+      </c>
+      <c r="N168">
+        <v>0.74009999999999998</v>
+      </c>
+      <c r="O168">
+        <v>36.630000000000003</v>
+      </c>
+      <c r="P168">
+        <v>11.78</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16">
+      <c r="A169" t="s">
+        <v>19</v>
+      </c>
+      <c r="B169">
+        <v>300</v>
+      </c>
+      <c r="C169" t="s">
+        <v>21</v>
+      </c>
+      <c r="D169">
+        <v>600</v>
+      </c>
+      <c r="E169">
+        <v>5</v>
+      </c>
+      <c r="F169" t="s">
+        <v>23</v>
+      </c>
+      <c r="G169">
+        <v>0.4</v>
+      </c>
+      <c r="H169" t="s">
+        <v>24</v>
+      </c>
+      <c r="I169">
+        <v>5</v>
+      </c>
+      <c r="J169">
+        <v>0.37680000000000002</v>
+      </c>
+      <c r="K169">
+        <v>0.44466699999999998</v>
+      </c>
+      <c r="L169">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="M169">
+        <v>1.88</v>
+      </c>
+      <c r="N169">
+        <v>0.42461700000000002</v>
+      </c>
+      <c r="O169">
+        <v>36.69</v>
+      </c>
+      <c r="P169">
+        <v>11.87</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16">
+      <c r="A170" t="s">
+        <v>19</v>
+      </c>
+      <c r="B170">
+        <v>300</v>
+      </c>
+      <c r="C170" t="s">
+        <v>21</v>
+      </c>
+      <c r="D170">
+        <v>600</v>
+      </c>
+      <c r="E170">
+        <v>5</v>
+      </c>
+      <c r="F170" t="s">
+        <v>23</v>
+      </c>
+      <c r="G170">
+        <v>0.4</v>
+      </c>
+      <c r="H170" t="s">
+        <v>24</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170">
+        <v>0.38279999999999997</v>
+      </c>
+      <c r="K170">
+        <v>0.62066699999999997</v>
+      </c>
+      <c r="L170">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="M170">
+        <v>2.6040000000000001</v>
+      </c>
+      <c r="N170">
+        <v>0.35654999999999998</v>
+      </c>
+      <c r="O170">
+        <v>36.76</v>
+      </c>
+      <c r="P170">
+        <v>11.92</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16">
+      <c r="A171" t="s">
+        <v>19</v>
+      </c>
+      <c r="B171">
+        <v>300</v>
+      </c>
+      <c r="C171" t="s">
+        <v>21</v>
+      </c>
+      <c r="D171">
+        <v>600</v>
+      </c>
+      <c r="E171">
+        <v>5</v>
+      </c>
+      <c r="F171" t="s">
+        <v>23</v>
+      </c>
+      <c r="G171">
+        <v>0.4</v>
+      </c>
+      <c r="H171" t="s">
+        <v>24</v>
+      </c>
+      <c r="I171">
+        <v>3</v>
+      </c>
+      <c r="J171">
+        <v>0.39279999999999998</v>
+      </c>
+      <c r="K171">
+        <v>0.66033299999999995</v>
+      </c>
+      <c r="L171">
+        <v>0.93</v>
+      </c>
+      <c r="M171">
+        <v>2.7280000000000002</v>
+      </c>
+      <c r="N171">
+        <v>0.33736699999999997</v>
+      </c>
+      <c r="O171">
+        <v>36.65</v>
+      </c>
+      <c r="P171">
+        <v>11.77</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16">
+      <c r="A172" t="s">
+        <v>19</v>
+      </c>
+      <c r="B172">
+        <v>300</v>
+      </c>
+      <c r="C172" t="s">
+        <v>21</v>
+      </c>
+      <c r="D172">
+        <v>600</v>
+      </c>
+      <c r="E172">
+        <v>5</v>
+      </c>
+      <c r="F172" t="s">
+        <v>23</v>
+      </c>
+      <c r="G172">
+        <v>0.4</v>
+      </c>
+      <c r="H172" t="s">
+        <v>24</v>
+      </c>
+      <c r="I172">
+        <v>5</v>
+      </c>
+      <c r="J172">
+        <v>0.34239999999999998</v>
+      </c>
+      <c r="K172">
+        <v>0.74683299999999997</v>
+      </c>
+      <c r="L172">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="M172">
+        <v>3.0819999999999999</v>
+      </c>
+      <c r="N172">
+        <v>0.37416700000000003</v>
+      </c>
+      <c r="O172">
+        <v>36.64</v>
+      </c>
+      <c r="P172">
+        <v>11.81</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16">
+      <c r="A173" t="s">
+        <v>19</v>
+      </c>
+      <c r="B173">
+        <v>300</v>
+      </c>
+      <c r="C173" t="s">
+        <v>21</v>
+      </c>
+      <c r="D173">
+        <v>600</v>
+      </c>
+      <c r="E173">
+        <v>5</v>
+      </c>
+      <c r="F173" t="s">
+        <v>23</v>
+      </c>
+      <c r="G173">
+        <v>0.4</v>
+      </c>
+      <c r="H173" t="s">
+        <v>24</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>0.3412</v>
+      </c>
+      <c r="K173">
+        <v>0.58733299999999999</v>
+      </c>
+      <c r="L173">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="M173">
+        <v>2.4620000000000002</v>
+      </c>
+      <c r="N173">
+        <v>0.40844999999999998</v>
+      </c>
+      <c r="O173">
+        <v>36.82</v>
+      </c>
+      <c r="P173">
+        <v>11.84</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16">
+      <c r="A174" t="s">
+        <v>19</v>
+      </c>
+      <c r="B174">
+        <v>300</v>
+      </c>
+      <c r="C174" t="s">
+        <v>21</v>
+      </c>
+      <c r="D174">
+        <v>600</v>
+      </c>
+      <c r="E174">
+        <v>5</v>
+      </c>
+      <c r="F174" t="s">
+        <v>23</v>
+      </c>
+      <c r="G174">
+        <v>0.4</v>
+      </c>
+      <c r="H174" t="s">
+        <v>24</v>
+      </c>
+      <c r="I174">
+        <v>3</v>
+      </c>
+      <c r="J174">
+        <v>0.38</v>
+      </c>
+      <c r="K174">
+        <v>0.37216700000000003</v>
+      </c>
+      <c r="L174">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="M174">
+        <v>1.6160000000000001</v>
+      </c>
+      <c r="N174">
+        <v>0.48651699999999998</v>
+      </c>
+      <c r="O174">
+        <v>36.770000000000003</v>
+      </c>
+      <c r="P174">
+        <v>11.84</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16">
+      <c r="A175" t="s">
+        <v>19</v>
+      </c>
+      <c r="B175">
+        <v>300</v>
+      </c>
+      <c r="C175" t="s">
+        <v>21</v>
+      </c>
+      <c r="D175">
+        <v>600</v>
+      </c>
+      <c r="E175">
+        <v>5</v>
+      </c>
+      <c r="F175" t="s">
+        <v>23</v>
+      </c>
+      <c r="G175">
+        <v>0.4</v>
+      </c>
+      <c r="H175" t="s">
+        <v>24</v>
+      </c>
+      <c r="I175">
+        <v>5</v>
+      </c>
+      <c r="J175">
+        <v>0.39079999999999998</v>
+      </c>
+      <c r="K175">
+        <v>0.80249999999999999</v>
+      </c>
+      <c r="L175">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="M175">
+        <v>3.306</v>
+      </c>
+      <c r="N175">
+        <v>0.30613299999999999</v>
+      </c>
+      <c r="O175">
+        <v>36.659999999999997</v>
+      </c>
+      <c r="P175">
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16">
+      <c r="A176" t="s">
+        <v>19</v>
+      </c>
+      <c r="B176">
+        <v>300</v>
+      </c>
+      <c r="C176" t="s">
+        <v>21</v>
+      </c>
+      <c r="D176">
+        <v>600</v>
+      </c>
+      <c r="E176">
+        <v>5</v>
+      </c>
+      <c r="F176" t="s">
+        <v>23</v>
+      </c>
+      <c r="G176">
+        <v>0.6</v>
+      </c>
+      <c r="H176" t="s">
+        <v>24</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <v>0.37719999999999998</v>
+      </c>
+      <c r="K176">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="L176">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="M176">
+        <v>1.702</v>
+      </c>
+      <c r="N176">
+        <v>0.478267</v>
+      </c>
+      <c r="O176">
+        <v>38.53</v>
+      </c>
+      <c r="P176">
+        <v>18.27</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16">
+      <c r="A177" t="s">
+        <v>19</v>
+      </c>
+      <c r="B177">
+        <v>300</v>
+      </c>
+      <c r="C177" t="s">
+        <v>21</v>
+      </c>
+      <c r="D177">
+        <v>600</v>
+      </c>
+      <c r="E177">
+        <v>5</v>
+      </c>
+      <c r="F177" t="s">
+        <v>23</v>
+      </c>
+      <c r="G177">
+        <v>0.6</v>
+      </c>
+      <c r="H177" t="s">
+        <v>24</v>
+      </c>
+      <c r="I177">
+        <v>3</v>
+      </c>
+      <c r="J177">
+        <v>0.378</v>
+      </c>
+      <c r="K177">
+        <v>0.63516700000000004</v>
+      </c>
+      <c r="L177">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="M177">
+        <v>2.6240000000000001</v>
+      </c>
+      <c r="N177">
+        <v>0.35780000000000001</v>
+      </c>
+      <c r="O177">
+        <v>39.06</v>
+      </c>
+      <c r="P177">
+        <v>18.04</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16">
+      <c r="A178" t="s">
+        <v>19</v>
+      </c>
+      <c r="B178">
+        <v>300</v>
+      </c>
+      <c r="C178" t="s">
+        <v>21</v>
+      </c>
+      <c r="D178">
+        <v>600</v>
+      </c>
+      <c r="E178">
+        <v>5</v>
+      </c>
+      <c r="F178" t="s">
+        <v>23</v>
+      </c>
+      <c r="G178">
+        <v>0.6</v>
+      </c>
+      <c r="H178" t="s">
+        <v>24</v>
+      </c>
+      <c r="I178">
+        <v>5</v>
+      </c>
+      <c r="J178">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="K178">
+        <v>0.38766699999999998</v>
+      </c>
+      <c r="L178">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="M178">
+        <v>1.6040000000000001</v>
+      </c>
+      <c r="N178">
+        <v>0.4667</v>
+      </c>
+      <c r="O178">
+        <v>39.1</v>
+      </c>
+      <c r="P178">
+        <v>17.84</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16">
+      <c r="A179" t="s">
+        <v>19</v>
+      </c>
+      <c r="B179">
+        <v>300</v>
+      </c>
+      <c r="C179" t="s">
+        <v>21</v>
+      </c>
+      <c r="D179">
+        <v>600</v>
+      </c>
+      <c r="E179">
+        <v>5</v>
+      </c>
+      <c r="F179" t="s">
+        <v>23</v>
+      </c>
+      <c r="G179">
+        <v>0.6</v>
+      </c>
+      <c r="H179" t="s">
+        <v>24</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179">
+        <v>0.34239999999999998</v>
+      </c>
+      <c r="K179">
+        <v>0.29966700000000002</v>
+      </c>
+      <c r="L179">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="M179">
+        <v>1.3240000000000001</v>
+      </c>
+      <c r="N179">
+        <v>0.55568300000000004</v>
+      </c>
+      <c r="O179">
+        <v>38.270000000000003</v>
+      </c>
+      <c r="P179">
+        <v>17.940000000000001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16">
+      <c r="A180" t="s">
+        <v>19</v>
+      </c>
+      <c r="B180">
+        <v>300</v>
+      </c>
+      <c r="C180" t="s">
+        <v>21</v>
+      </c>
+      <c r="D180">
+        <v>600</v>
+      </c>
+      <c r="E180">
+        <v>5</v>
+      </c>
+      <c r="F180" t="s">
+        <v>23</v>
+      </c>
+      <c r="G180">
+        <v>0.6</v>
+      </c>
+      <c r="H180" t="s">
+        <v>24</v>
+      </c>
+      <c r="I180">
+        <v>3</v>
+      </c>
+      <c r="J180">
+        <v>0.34079999999999999</v>
+      </c>
+      <c r="K180">
+        <v>0.43049999999999999</v>
+      </c>
+      <c r="L180">
+        <v>0.8</v>
+      </c>
+      <c r="M180">
+        <v>1.8520000000000001</v>
+      </c>
+      <c r="N180">
+        <v>0.45916699999999999</v>
+      </c>
+      <c r="O180">
+        <v>38.869999999999997</v>
+      </c>
+      <c r="P180">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16">
+      <c r="A181" t="s">
+        <v>19</v>
+      </c>
+      <c r="B181">
+        <v>300</v>
+      </c>
+      <c r="C181" t="s">
+        <v>21</v>
+      </c>
+      <c r="D181">
+        <v>600</v>
+      </c>
+      <c r="E181">
+        <v>5</v>
+      </c>
+      <c r="F181" t="s">
+        <v>23</v>
+      </c>
+      <c r="G181">
+        <v>0.6</v>
+      </c>
+      <c r="H181" t="s">
+        <v>24</v>
+      </c>
+      <c r="I181">
+        <v>5</v>
+      </c>
+      <c r="J181">
+        <v>0.374</v>
+      </c>
+      <c r="K181">
+        <v>0.68566700000000003</v>
+      </c>
+      <c r="L181">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="M181">
+        <v>2.8839999999999999</v>
+      </c>
+      <c r="N181">
+        <v>0.33453300000000002</v>
+      </c>
+      <c r="O181">
+        <v>38.68</v>
+      </c>
+      <c r="P181">
+        <v>18.16</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16">
+      <c r="A182" t="s">
+        <v>19</v>
+      </c>
+      <c r="B182">
+        <v>300</v>
+      </c>
+      <c r="C182" t="s">
+        <v>21</v>
+      </c>
+      <c r="D182">
+        <v>600</v>
+      </c>
+      <c r="E182">
+        <v>5</v>
+      </c>
+      <c r="F182" t="s">
+        <v>23</v>
+      </c>
+      <c r="G182">
+        <v>0.6</v>
+      </c>
+      <c r="H182" t="s">
+        <v>24</v>
+      </c>
+      <c r="I182">
+        <v>1</v>
+      </c>
+      <c r="J182">
+        <v>0.37559999999999999</v>
+      </c>
+      <c r="K182">
+        <v>0.61383299999999996</v>
+      </c>
+      <c r="L182">
+        <v>0.89</v>
+      </c>
+      <c r="M182">
+        <v>2.544</v>
+      </c>
+      <c r="N182">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="O182">
+        <v>38.6</v>
+      </c>
+      <c r="P182">
+        <v>18.190000000000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16">
+      <c r="A183" t="s">
+        <v>19</v>
+      </c>
+      <c r="B183">
+        <v>300</v>
+      </c>
+      <c r="C183" t="s">
+        <v>21</v>
+      </c>
+      <c r="D183">
+        <v>600</v>
+      </c>
+      <c r="E183">
+        <v>5</v>
+      </c>
+      <c r="F183" t="s">
+        <v>23</v>
+      </c>
+      <c r="G183">
+        <v>0.6</v>
+      </c>
+      <c r="H183" t="s">
+        <v>24</v>
+      </c>
+      <c r="I183">
+        <v>3</v>
+      </c>
+      <c r="J183">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="K183">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="L183">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="M183">
+        <v>2.02</v>
+      </c>
+      <c r="N183">
+        <v>0.39668300000000001</v>
+      </c>
+      <c r="O183">
+        <v>38.89</v>
+      </c>
+      <c r="P183">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16">
+      <c r="A184" t="s">
+        <v>19</v>
+      </c>
+      <c r="B184">
+        <v>300</v>
+      </c>
+      <c r="C184" t="s">
+        <v>21</v>
+      </c>
+      <c r="D184">
+        <v>600</v>
+      </c>
+      <c r="E184">
+        <v>5</v>
+      </c>
+      <c r="F184" t="s">
+        <v>23</v>
+      </c>
+      <c r="G184">
+        <v>0.6</v>
+      </c>
+      <c r="H184" t="s">
+        <v>24</v>
+      </c>
+      <c r="I184">
+        <v>5</v>
+      </c>
+      <c r="J184">
+        <v>0.3412</v>
+      </c>
+      <c r="K184">
+        <v>0.284167</v>
+      </c>
+      <c r="L184">
+        <v>0.8</v>
+      </c>
+      <c r="M184">
+        <v>1.266</v>
+      </c>
+      <c r="N184">
+        <v>0.55830000000000002</v>
+      </c>
+      <c r="O184">
+        <v>39.11</v>
+      </c>
+      <c r="P184">
+        <v>17.739999999999998</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16">
+      <c r="A185" t="s">
+        <v>19</v>
+      </c>
+      <c r="B185">
+        <v>300</v>
+      </c>
+      <c r="C185" t="s">
+        <v>21</v>
+      </c>
+      <c r="D185">
+        <v>600</v>
+      </c>
+      <c r="E185">
+        <v>5</v>
+      </c>
+      <c r="F185" t="s">
+        <v>23</v>
+      </c>
+      <c r="G185">
+        <v>0.8</v>
+      </c>
+      <c r="H185" t="s">
+        <v>24</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185">
+        <v>0.38279999999999997</v>
+      </c>
+      <c r="K185">
+        <v>0.53966700000000001</v>
+      </c>
+      <c r="L185">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="M185">
+        <v>2.2280000000000002</v>
+      </c>
+      <c r="N185">
+        <v>0.375583</v>
+      </c>
+      <c r="O185">
+        <v>41.66</v>
+      </c>
+      <c r="P185">
+        <v>24.24</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/experiment_result.xlsx
+++ b/experiment/experiment_result.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="27">
   <si>
     <t>name</t>
   </si>
@@ -100,6 +100,12 @@
   <si>
     <t>NULL</t>
   </si>
+  <si>
+    <t>corel5k_6x8x12_omgr_CSM</t>
+  </si>
+  <si>
+    <t>8520ms</t>
+  </si>
 </sst>
 </file>
 
@@ -139,7 +145,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -183,7 +189,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -479,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P185"/>
+  <dimension ref="A1:P195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="N50" sqref="N50:N68"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="A186" sqref="A186:P195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9740,6 +9746,506 @@
         <v>24.24</v>
       </c>
     </row>
+    <row r="186" spans="1:16">
+      <c r="A186" t="s">
+        <v>25</v>
+      </c>
+      <c r="B186">
+        <v>50</v>
+      </c>
+      <c r="C186" t="s">
+        <v>26</v>
+      </c>
+      <c r="D186">
+        <v>600</v>
+      </c>
+      <c r="E186">
+        <v>387</v>
+      </c>
+      <c r="F186" t="s">
+        <v>17</v>
+      </c>
+      <c r="G186">
+        <v>0.2</v>
+      </c>
+      <c r="H186">
+        <v>100</v>
+      </c>
+      <c r="I186" t="s">
+        <v>24</v>
+      </c>
+      <c r="J186">
+        <v>1.5408E-2</v>
+      </c>
+      <c r="K186">
+        <v>0.197103</v>
+      </c>
+      <c r="L186">
+        <v>0.74348700000000001</v>
+      </c>
+      <c r="M186">
+        <v>113.354709</v>
+      </c>
+      <c r="N186">
+        <v>0.22414600000000001</v>
+      </c>
+      <c r="O186">
+        <v>835.08</v>
+      </c>
+      <c r="P186">
+        <v>38.83</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16">
+      <c r="A187" t="s">
+        <v>25</v>
+      </c>
+      <c r="B187">
+        <v>50</v>
+      </c>
+      <c r="C187" t="s">
+        <v>26</v>
+      </c>
+      <c r="D187">
+        <v>600</v>
+      </c>
+      <c r="E187">
+        <v>387</v>
+      </c>
+      <c r="F187" t="s">
+        <v>17</v>
+      </c>
+      <c r="G187">
+        <v>0.2</v>
+      </c>
+      <c r="H187">
+        <v>150</v>
+      </c>
+      <c r="I187" t="s">
+        <v>24</v>
+      </c>
+      <c r="J187">
+        <v>1.55E-2</v>
+      </c>
+      <c r="K187">
+        <v>0.21584</v>
+      </c>
+      <c r="L187">
+        <v>0.75551100000000004</v>
+      </c>
+      <c r="M187">
+        <v>120.549098</v>
+      </c>
+      <c r="N187">
+        <v>0.21978300000000001</v>
+      </c>
+      <c r="O187">
+        <v>829.34</v>
+      </c>
+      <c r="P187">
+        <v>39.520000000000003</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16">
+      <c r="A188" t="s">
+        <v>25</v>
+      </c>
+      <c r="B188">
+        <v>50</v>
+      </c>
+      <c r="C188" t="s">
+        <v>26</v>
+      </c>
+      <c r="D188">
+        <v>600</v>
+      </c>
+      <c r="E188">
+        <v>387</v>
+      </c>
+      <c r="F188" t="s">
+        <v>17</v>
+      </c>
+      <c r="G188">
+        <v>0.2</v>
+      </c>
+      <c r="H188">
+        <v>200</v>
+      </c>
+      <c r="I188" t="s">
+        <v>24</v>
+      </c>
+      <c r="J188">
+        <v>1.5608E-2</v>
+      </c>
+      <c r="K188">
+        <v>0.20465700000000001</v>
+      </c>
+      <c r="L188">
+        <v>0.76953899999999997</v>
+      </c>
+      <c r="M188">
+        <v>118.088176</v>
+      </c>
+      <c r="N188">
+        <v>0.22472</v>
+      </c>
+      <c r="O188">
+        <v>844.42</v>
+      </c>
+      <c r="P188">
+        <v>40.340000000000003</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16">
+      <c r="A189" t="s">
+        <v>25</v>
+      </c>
+      <c r="B189">
+        <v>50</v>
+      </c>
+      <c r="C189" t="s">
+        <v>26</v>
+      </c>
+      <c r="D189">
+        <v>600</v>
+      </c>
+      <c r="E189">
+        <v>387</v>
+      </c>
+      <c r="F189" t="s">
+        <v>17</v>
+      </c>
+      <c r="G189">
+        <v>0.4</v>
+      </c>
+      <c r="H189">
+        <v>100</v>
+      </c>
+      <c r="I189" t="s">
+        <v>24</v>
+      </c>
+      <c r="J189">
+        <v>1.5654000000000001E-2</v>
+      </c>
+      <c r="K189">
+        <v>0.19975899999999999</v>
+      </c>
+      <c r="L189">
+        <v>0.77555099999999999</v>
+      </c>
+      <c r="M189">
+        <v>114.316633</v>
+      </c>
+      <c r="N189">
+        <v>0.219719</v>
+      </c>
+      <c r="O189">
+        <v>822.21</v>
+      </c>
+      <c r="P189">
+        <v>74.88</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16">
+      <c r="A190" t="s">
+        <v>25</v>
+      </c>
+      <c r="B190">
+        <v>50</v>
+      </c>
+      <c r="C190" t="s">
+        <v>26</v>
+      </c>
+      <c r="D190">
+        <v>600</v>
+      </c>
+      <c r="E190">
+        <v>387</v>
+      </c>
+      <c r="F190" t="s">
+        <v>17</v>
+      </c>
+      <c r="G190">
+        <v>0.4</v>
+      </c>
+      <c r="H190">
+        <v>150</v>
+      </c>
+      <c r="I190" t="s">
+        <v>24</v>
+      </c>
+      <c r="J190">
+        <v>1.5624000000000001E-2</v>
+      </c>
+      <c r="K190">
+        <v>0.205373</v>
+      </c>
+      <c r="L190">
+        <v>0.77154299999999998</v>
+      </c>
+      <c r="M190">
+        <v>118.87976</v>
+      </c>
+      <c r="N190">
+        <v>0.21860399999999999</v>
+      </c>
+      <c r="O190">
+        <v>840.86</v>
+      </c>
+      <c r="P190">
+        <v>77.14</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16">
+      <c r="A191" t="s">
+        <v>25</v>
+      </c>
+      <c r="B191">
+        <v>50</v>
+      </c>
+      <c r="C191" t="s">
+        <v>26</v>
+      </c>
+      <c r="D191">
+        <v>600</v>
+      </c>
+      <c r="E191">
+        <v>387</v>
+      </c>
+      <c r="F191" t="s">
+        <v>17</v>
+      </c>
+      <c r="G191">
+        <v>0.4</v>
+      </c>
+      <c r="H191">
+        <v>200</v>
+      </c>
+      <c r="I191" t="s">
+        <v>24</v>
+      </c>
+      <c r="J191">
+        <v>1.5531E-2</v>
+      </c>
+      <c r="K191">
+        <v>0.202235</v>
+      </c>
+      <c r="L191">
+        <v>0.75951900000000006</v>
+      </c>
+      <c r="M191">
+        <v>117.901804</v>
+      </c>
+      <c r="N191">
+        <v>0.225045</v>
+      </c>
+      <c r="O191">
+        <v>857.91</v>
+      </c>
+      <c r="P191">
+        <v>77.819999999999993</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16">
+      <c r="A192" t="s">
+        <v>25</v>
+      </c>
+      <c r="B192">
+        <v>50</v>
+      </c>
+      <c r="C192" t="s">
+        <v>26</v>
+      </c>
+      <c r="D192">
+        <v>600</v>
+      </c>
+      <c r="E192">
+        <v>387</v>
+      </c>
+      <c r="F192" t="s">
+        <v>17</v>
+      </c>
+      <c r="G192">
+        <v>0.6</v>
+      </c>
+      <c r="H192">
+        <v>100</v>
+      </c>
+      <c r="I192" t="s">
+        <v>24</v>
+      </c>
+      <c r="J192">
+        <v>1.5377E-2</v>
+      </c>
+      <c r="K192">
+        <v>0.20044999999999999</v>
+      </c>
+      <c r="L192">
+        <v>0.739479</v>
+      </c>
+      <c r="M192">
+        <v>115.87575200000001</v>
+      </c>
+      <c r="N192">
+        <v>0.22337899999999999</v>
+      </c>
+      <c r="O192">
+        <v>830.52</v>
+      </c>
+      <c r="P192">
+        <v>111.89</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16">
+      <c r="A193" t="s">
+        <v>25</v>
+      </c>
+      <c r="B193">
+        <v>50</v>
+      </c>
+      <c r="C193" t="s">
+        <v>26</v>
+      </c>
+      <c r="D193">
+        <v>600</v>
+      </c>
+      <c r="E193">
+        <v>387</v>
+      </c>
+      <c r="F193" t="s">
+        <v>17</v>
+      </c>
+      <c r="G193">
+        <v>0.6</v>
+      </c>
+      <c r="H193">
+        <v>150</v>
+      </c>
+      <c r="I193" t="s">
+        <v>24</v>
+      </c>
+      <c r="J193">
+        <v>1.5531E-2</v>
+      </c>
+      <c r="K193">
+        <v>0.20347000000000001</v>
+      </c>
+      <c r="L193">
+        <v>0.75951900000000006</v>
+      </c>
+      <c r="M193">
+        <v>116.66933899999999</v>
+      </c>
+      <c r="N193">
+        <v>0.218141</v>
+      </c>
+      <c r="O193">
+        <v>849.51</v>
+      </c>
+      <c r="P193">
+        <v>114.51</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16">
+      <c r="A194" t="s">
+        <v>25</v>
+      </c>
+      <c r="B194">
+        <v>50</v>
+      </c>
+      <c r="C194" t="s">
+        <v>26</v>
+      </c>
+      <c r="D194">
+        <v>600</v>
+      </c>
+      <c r="E194">
+        <v>387</v>
+      </c>
+      <c r="F194" t="s">
+        <v>17</v>
+      </c>
+      <c r="G194">
+        <v>0.6</v>
+      </c>
+      <c r="H194">
+        <v>200</v>
+      </c>
+      <c r="I194" t="s">
+        <v>24</v>
+      </c>
+      <c r="J194">
+        <v>1.5469E-2</v>
+      </c>
+      <c r="K194">
+        <v>0.205424</v>
+      </c>
+      <c r="L194">
+        <v>0.75150300000000003</v>
+      </c>
+      <c r="M194">
+        <v>119.306613</v>
+      </c>
+      <c r="N194">
+        <v>0.22575200000000001</v>
+      </c>
+      <c r="O194">
+        <v>867.98</v>
+      </c>
+      <c r="P194">
+        <v>114.69</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16">
+      <c r="A195" t="s">
+        <v>25</v>
+      </c>
+      <c r="B195">
+        <v>50</v>
+      </c>
+      <c r="C195" t="s">
+        <v>26</v>
+      </c>
+      <c r="D195">
+        <v>600</v>
+      </c>
+      <c r="E195">
+        <v>387</v>
+      </c>
+      <c r="F195" t="s">
+        <v>17</v>
+      </c>
+      <c r="G195">
+        <v>0.8</v>
+      </c>
+      <c r="H195">
+        <v>100</v>
+      </c>
+      <c r="I195" t="s">
+        <v>24</v>
+      </c>
+      <c r="J195">
+        <v>1.5485000000000001E-2</v>
+      </c>
+      <c r="K195">
+        <v>0.19971900000000001</v>
+      </c>
+      <c r="L195">
+        <v>0.75350700000000004</v>
+      </c>
+      <c r="M195">
+        <v>115.513026</v>
+      </c>
+      <c r="N195">
+        <v>0.22276599999999999</v>
+      </c>
+      <c r="O195">
+        <v>842.22</v>
+      </c>
+      <c r="P195">
+        <v>148.21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
